--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_24_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_24_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181555.9046984815</v>
+        <v>171545.4618034007</v>
       </c>
     </row>
     <row r="7">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.26683315033969</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>31.26683315033969</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18.68867339138581</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>18.68867339138482</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="U2" t="n">
-        <v>31.26683315033969</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.53982663881919</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.51103305293344</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>31.26683315033969</v>
+        <v>12.0287935858854</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>31.26683315033969</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>31.26683315033969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.05581137020567</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>33.05581137020575</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.58206201150024</v>
       </c>
       <c r="J6" t="n">
-        <v>13.70815661144294</v>
+        <v>3.943605853414029</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.808809210202206</v>
+        <v>5.808809210202178</v>
       </c>
       <c r="R6" t="n">
-        <v>34.25063875717579</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S6" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="T6" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>16.81751125347112</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>39.99327657040322</v>
       </c>
       <c r="E8" t="n">
-        <v>39.99327657040322</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>45.40562735059407</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39.99327657040322</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>45.40562735059407</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.02646010756757</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>12.18354252066408</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.783273942171576</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>45.40562735059407</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>45.40562735059407</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1.468277882965447</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.468277882965447</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>96.78758242229677</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="G11" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90177044380179</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>161.483645379382</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
     </row>
     <row r="12">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>110.5980300078592</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>26.40071833843325</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>26.2667358705163</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H13" t="n">
-        <v>142.5679993783892</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>48.6531349655906</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>219.5565574740961</v>
+        <v>193.3854158231839</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>193.3854158231837</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H15" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.70128436951479</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>35.79527382973711</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>7.970755547616492</v>
       </c>
     </row>
     <row r="16">
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>48.6531349655906</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.5679993783892</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>191.22113434398</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>59.22911908072474</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>31.90177044380177</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740963</v>
       </c>
       <c r="V17" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>219.5565574740963</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>193.3854158231838</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>219.5565574740963</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>93.54188491598607</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>37.10678474352908</v>
       </c>
     </row>
     <row r="19">
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>28.23631971346532</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>191.22113434398</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>219.5565574740963</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>91.13088952452654</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>219.5565574740963</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>167.1403382771522</v>
       </c>
       <c r="W20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>72.77623149104582</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>54.78702865749779</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>191.2211343439799</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>191.22113434398</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>17.27034467548608</v>
       </c>
       <c r="G23" t="n">
-        <v>233.9908026604824</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.3124908149276</v>
@@ -2380,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2408,13 +2408,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>104.7337711575492</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>58.86368590284032</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>8.952956523423158</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
@@ -2465,7 +2465,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="25">
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>55.51465019623038</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>95.90821448698105</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.494088681348349</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>210.6759969846144</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2639,19 +2639,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>9.92290059680125</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>5.789517020581219</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>22.88166847950842</v>
+        <v>238.5333275117464</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>227.3850867445277</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>197.5021130657154</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>23.58218296507347</v>
       </c>
       <c r="C30" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>68.50412492458062</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U30" t="n">
         <v>195.2992474636072</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>55.51465019623016</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>151.8612264094992</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>152.2049426462841</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U32" t="n">
-        <v>20.54932617585066</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3119,13 +3119,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>113.6597980399019</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -3173,7 +3173,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424961</v>
+        <v>17.03724357774913</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.25210489339149</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>259.4219021912133</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3280,10 +3280,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>255.1820181724349</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.8884939928407</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,22 +3347,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>111.7223346346545</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>63.92409583356882</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
         <v>174.5627220424961</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>127.3898190822009</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4151409207288</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>200.8984742642126</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>134.6005855621436</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,16 +3587,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>34.08873677909601</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>5.789517020581325</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>101.5222039608943</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>127.3898190822008</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>401.9448059560762</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H41" t="n">
-        <v>221.5984994331359</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
@@ -3833,7 +3833,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>100.3214216327276</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T42" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U42" t="n">
-        <v>149.5312016015733</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3884,7 +3884,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>51.30603072492219</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>167.1934341018228</v>
       </c>
       <c r="T43" t="n">
-        <v>106.3231632646564</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>347.2087064743915</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>277.6828714803801</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U45" t="n">
-        <v>112.1565824440667</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>109.7127036606649</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>66.83715611571603</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>21.19401501305948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.96145426993172</v>
+        <v>30.31935335790476</v>
       </c>
       <c r="C2" t="n">
-        <v>21.37879452211385</v>
+        <v>30.31935335790476</v>
       </c>
       <c r="D2" t="n">
-        <v>2.501346652027175</v>
+        <v>30.31935335790476</v>
       </c>
       <c r="E2" t="n">
-        <v>2.501346652027175</v>
+        <v>30.31935335790476</v>
       </c>
       <c r="F2" t="n">
-        <v>2.501346652027175</v>
+        <v>11.44190548781908</v>
       </c>
       <c r="G2" t="n">
-        <v>2.501346652027175</v>
+        <v>11.44190548781908</v>
       </c>
       <c r="H2" t="n">
-        <v>2.501346652027175</v>
+        <v>11.44190548781908</v>
       </c>
       <c r="I2" t="n">
-        <v>2.501346652027175</v>
+        <v>11.44190548781908</v>
       </c>
       <c r="J2" t="n">
-        <v>2.501346652027175</v>
+        <v>11.44190548781908</v>
       </c>
       <c r="K2" t="n">
-        <v>3.586988368706981</v>
+        <v>12.52754720449857</v>
       </c>
       <c r="L2" t="n">
-        <v>19.87903646972104</v>
+        <v>28.81959530551225</v>
       </c>
       <c r="M2" t="n">
-        <v>50.83320128855733</v>
+        <v>59.77376012434814</v>
       </c>
       <c r="N2" t="n">
-        <v>81.78736610739362</v>
+        <v>90.72792494318404</v>
       </c>
       <c r="O2" t="n">
-        <v>107.853142238548</v>
+        <v>116.7937010743381</v>
       </c>
       <c r="P2" t="n">
-        <v>116.1267737655675</v>
+        <v>125.0673326013571</v>
       </c>
       <c r="Q2" t="n">
-        <v>116.1267737655675</v>
+        <v>125.0673326013571</v>
       </c>
       <c r="R2" t="n">
-        <v>116.1267737655675</v>
+        <v>125.0673326013571</v>
       </c>
       <c r="S2" t="n">
-        <v>116.1267737655675</v>
+        <v>125.0673326013571</v>
       </c>
       <c r="T2" t="n">
-        <v>116.1267737655675</v>
+        <v>93.48467285353968</v>
       </c>
       <c r="U2" t="n">
-        <v>84.54411401774959</v>
+        <v>61.90201310572222</v>
       </c>
       <c r="V2" t="n">
-        <v>84.54411401774959</v>
+        <v>30.31935335790476</v>
       </c>
       <c r="W2" t="n">
-        <v>84.54411401774959</v>
+        <v>30.31935335790476</v>
       </c>
       <c r="X2" t="n">
-        <v>84.54411401774959</v>
+        <v>30.31935335790476</v>
       </c>
       <c r="Y2" t="n">
-        <v>84.54411401774959</v>
+        <v>30.31935335790476</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.501346652027175</v>
+        <v>112.9170360499577</v>
       </c>
       <c r="C3" t="n">
-        <v>2.501346652027175</v>
+        <v>112.9170360499577</v>
       </c>
       <c r="D3" t="n">
-        <v>2.501346652027175</v>
+        <v>81.33437630214029</v>
       </c>
       <c r="E3" t="n">
-        <v>2.501346652027175</v>
+        <v>81.33437630214029</v>
       </c>
       <c r="F3" t="n">
-        <v>2.501346652027175</v>
+        <v>49.75171655432283</v>
       </c>
       <c r="G3" t="n">
-        <v>2.501346652027175</v>
+        <v>18.16905680650537</v>
       </c>
       <c r="H3" t="n">
-        <v>2.501346652027175</v>
+        <v>18.16905680650537</v>
       </c>
       <c r="I3" t="n">
-        <v>2.501346652027175</v>
+        <v>18.16905680650537</v>
       </c>
       <c r="J3" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="K3" t="n">
-        <v>2.501346652027175</v>
+        <v>7.908332877647409</v>
       </c>
       <c r="L3" t="n">
-        <v>28.53233606375582</v>
+        <v>33.93932228937577</v>
       </c>
       <c r="M3" t="n">
-        <v>45.12530505838048</v>
+        <v>64.89348710821167</v>
       </c>
       <c r="N3" t="n">
-        <v>76.07946987721677</v>
+        <v>95.84765192704756</v>
       </c>
       <c r="O3" t="n">
-        <v>107.0336346960531</v>
+        <v>107.0336346960517</v>
       </c>
       <c r="P3" t="n">
-        <v>125.0673326013588</v>
+        <v>125.0673326013571</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.0673326013588</v>
+        <v>125.0673326013571</v>
       </c>
       <c r="R3" t="n">
-        <v>125.0673326013588</v>
+        <v>125.0673326013571</v>
       </c>
       <c r="S3" t="n">
-        <v>125.0673326013588</v>
+        <v>125.0673326013571</v>
       </c>
       <c r="T3" t="n">
-        <v>93.48467285354089</v>
+        <v>112.9170360499577</v>
       </c>
       <c r="U3" t="n">
-        <v>93.48467285354089</v>
+        <v>112.9170360499577</v>
       </c>
       <c r="V3" t="n">
-        <v>93.48467285354089</v>
+        <v>112.9170360499577</v>
       </c>
       <c r="W3" t="n">
-        <v>93.48467285354089</v>
+        <v>112.9170360499577</v>
       </c>
       <c r="X3" t="n">
-        <v>61.90201310572301</v>
+        <v>112.9170360499577</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.31935335790514</v>
+        <v>112.9170360499577</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="C4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="D4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="E4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="F4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="G4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="H4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="I4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="J4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="K4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="L4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="M4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="N4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="O4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="P4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="R4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="S4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="T4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="U4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="V4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="W4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="X4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.501346652027175</v>
+        <v>2.501346652027143</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.002344356966911</v>
+        <v>112.208829502804</v>
       </c>
       <c r="C5" t="n">
-        <v>3.002344356966911</v>
+        <v>112.208829502804</v>
       </c>
       <c r="D5" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="E5" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="F5" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="G5" t="n">
-        <v>3.002344356966911</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="H5" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I5" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J5" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K5" t="n">
-        <v>8.579347327526861</v>
+        <v>8.579347327526918</v>
       </c>
       <c r="L5" t="n">
-        <v>30.44332621730852</v>
+        <v>30.4433262173086</v>
       </c>
       <c r="M5" t="n">
-        <v>67.59733763477405</v>
+        <v>67.59733763477419</v>
       </c>
       <c r="N5" t="n">
-        <v>104.7513490522396</v>
+        <v>104.7513490522398</v>
       </c>
       <c r="O5" t="n">
-        <v>136.7661938505103</v>
+        <v>136.7661938505106</v>
       </c>
       <c r="P5" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="Q5" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="R5" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="S5" t="n">
-        <v>74.30044115726193</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="T5" t="n">
-        <v>74.30044115726193</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="U5" t="n">
-        <v>74.30044115726193</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="V5" t="n">
-        <v>36.39205281172012</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="W5" t="n">
-        <v>36.39205281172012</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="X5" t="n">
-        <v>36.39205281172012</v>
+        <v>112.208829502804</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.39205281172012</v>
+        <v>112.208829502804</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.84896719680826</v>
+        <v>71.74474064686666</v>
       </c>
       <c r="C6" t="n">
-        <v>16.84896719680826</v>
+        <v>71.74474064686666</v>
       </c>
       <c r="D6" t="n">
-        <v>16.84896719680826</v>
+        <v>71.74474064686666</v>
       </c>
       <c r="E6" t="n">
-        <v>16.84896719680826</v>
+        <v>71.74474064686666</v>
       </c>
       <c r="F6" t="n">
-        <v>16.84896719680826</v>
+        <v>71.74474064686666</v>
       </c>
       <c r="G6" t="n">
-        <v>16.84896719680826</v>
+        <v>71.74474064686666</v>
       </c>
       <c r="H6" t="n">
-        <v>16.84896719680826</v>
+        <v>33.83635230132477</v>
       </c>
       <c r="I6" t="n">
-        <v>16.84896719680826</v>
+        <v>6.985784612940684</v>
       </c>
       <c r="J6" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K6" t="n">
-        <v>11.4599195490647</v>
+        <v>11.45991954906474</v>
       </c>
       <c r="L6" t="n">
-        <v>41.59280229228314</v>
+        <v>41.59280229228324</v>
       </c>
       <c r="M6" t="n">
-        <v>78.74681370974866</v>
+        <v>78.74681370974884</v>
       </c>
       <c r="N6" t="n">
-        <v>91.75600249516226</v>
+        <v>91.75600249516246</v>
       </c>
       <c r="O6" t="n">
-        <v>128.4760412668172</v>
+        <v>128.4760412668174</v>
       </c>
       <c r="P6" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="Q6" t="n">
-        <v>144.2497337976363</v>
+        <v>144.2497337976366</v>
       </c>
       <c r="R6" t="n">
-        <v>109.6531289924082</v>
+        <v>109.6531289924085</v>
       </c>
       <c r="S6" t="n">
-        <v>71.74474064686636</v>
+        <v>71.74474064686666</v>
       </c>
       <c r="T6" t="n">
-        <v>33.83635230132455</v>
+        <v>71.74474064686666</v>
       </c>
       <c r="U6" t="n">
-        <v>16.84896719680826</v>
+        <v>71.74474064686666</v>
       </c>
       <c r="V6" t="n">
-        <v>16.84896719680826</v>
+        <v>71.74474064686666</v>
       </c>
       <c r="W6" t="n">
-        <v>16.84896719680826</v>
+        <v>71.74474064686666</v>
       </c>
       <c r="X6" t="n">
-        <v>16.84896719680826</v>
+        <v>71.74474064686666</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.84896719680826</v>
+        <v>71.74474064686666</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="C7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="D7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="E7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="F7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="G7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="L7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="M7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="N7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="O7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="P7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="R7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="S7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="T7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="U7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="V7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="W7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="X7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181.6225094023763</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="C8" t="n">
-        <v>181.6225094023763</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="D8" t="n">
-        <v>181.6225094023763</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="E8" t="n">
-        <v>141.2252603413629</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="F8" t="n">
-        <v>95.36099029025777</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="G8" t="n">
         <v>49.49672023915265</v>
@@ -4807,13 +4807,13 @@
         <v>3.632450188047526</v>
       </c>
       <c r="K8" t="n">
-        <v>13.00760177093454</v>
+        <v>13.00760177093458</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58351986958228</v>
+        <v>39.58351986958232</v>
       </c>
       <c r="M8" t="n">
-        <v>81.98047155039912</v>
+        <v>81.9804715503991</v>
       </c>
       <c r="N8" t="n">
         <v>126.9320426274872</v>
@@ -4831,25 +4831,25 @@
         <v>181.6225094023763</v>
       </c>
       <c r="S8" t="n">
-        <v>181.6225094023763</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="T8" t="n">
-        <v>181.6225094023763</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="U8" t="n">
-        <v>181.6225094023763</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="V8" t="n">
-        <v>181.6225094023763</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="W8" t="n">
-        <v>181.6225094023763</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="X8" t="n">
-        <v>181.6225094023763</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.6225094023763</v>
+        <v>89.89396930016601</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.09268248989169</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="C9" t="n">
-        <v>42.22841243878656</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="D9" t="n">
-        <v>42.22841243878656</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="E9" t="n">
-        <v>42.22841243878656</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="F9" t="n">
-        <v>42.22841243878656</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="G9" t="n">
-        <v>42.22841243878656</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="H9" t="n">
-        <v>42.22841243878656</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="I9" t="n">
-        <v>15.93905879477892</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="J9" t="n">
         <v>3.632450188047526</v>
@@ -4907,28 +4907,28 @@
         <v>181.6225094023763</v>
       </c>
       <c r="R9" t="n">
-        <v>179.8212225921019</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="S9" t="n">
-        <v>133.9569525409968</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="T9" t="n">
-        <v>88.09268248989169</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="U9" t="n">
-        <v>88.09268248989169</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="V9" t="n">
-        <v>88.09268248989169</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="W9" t="n">
-        <v>88.09268248989169</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="X9" t="n">
-        <v>88.09268248989169</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="Y9" t="n">
-        <v>88.09268248989169</v>
+        <v>89.89396930016601</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="C10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="D10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="E10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="F10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="G10" t="n">
         <v>3.632450188047526</v>
@@ -4977,37 +4977,37 @@
         <v>5.115559160739896</v>
       </c>
       <c r="O10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="P10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="R10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="S10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="T10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="U10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="V10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="W10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="X10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>493.3371361049924</v>
+        <v>337.1040598468095</v>
       </c>
       <c r="C11" t="n">
-        <v>493.3371361049924</v>
+        <v>337.1040598468095</v>
       </c>
       <c r="D11" t="n">
-        <v>493.3371361049924</v>
+        <v>337.1040598468095</v>
       </c>
       <c r="E11" t="n">
-        <v>493.3371361049924</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="F11" t="n">
-        <v>493.3371361049924</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G11" t="n">
-        <v>271.5628356261074</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H11" t="n">
-        <v>49.78853514722243</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I11" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J11" t="n">
-        <v>61.76566646422701</v>
+        <v>61.76566646422702</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474251</v>
+        <v>148.5608200474253</v>
       </c>
       <c r="L11" t="n">
-        <v>271.1830965723307</v>
+        <v>271.1830965723309</v>
       </c>
       <c r="M11" t="n">
-        <v>420.4501281543857</v>
+        <v>420.4501281543859</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547424</v>
+        <v>574.0010487547428</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809663</v>
+        <v>713.5940480809668</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598409</v>
+        <v>818.7605380598413</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S11" t="n">
-        <v>878.2262298963844</v>
+        <v>774.9388295947108</v>
       </c>
       <c r="T11" t="n">
-        <v>878.2262298963844</v>
+        <v>558.8783603256945</v>
       </c>
       <c r="U11" t="n">
-        <v>878.2262298963844</v>
+        <v>558.8783603256945</v>
       </c>
       <c r="V11" t="n">
-        <v>656.4519294174995</v>
+        <v>558.8783603256945</v>
       </c>
       <c r="W11" t="n">
-        <v>493.3371361049924</v>
+        <v>558.8783603256945</v>
       </c>
       <c r="X11" t="n">
-        <v>493.3371361049924</v>
+        <v>558.8783603256945</v>
       </c>
       <c r="Y11" t="n">
-        <v>493.3371361049924</v>
+        <v>337.1040598468095</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>388.9495696372616</v>
+        <v>464.9713081237143</v>
       </c>
       <c r="C12" t="n">
-        <v>254.9544983862073</v>
+        <v>353.2561262975938</v>
       </c>
       <c r="D12" t="n">
-        <v>138.0573406055997</v>
+        <v>353.2561262975938</v>
       </c>
       <c r="E12" t="n">
-        <v>17.56452459792769</v>
+        <v>232.7633102899218</v>
       </c>
       <c r="F12" t="n">
-        <v>17.56452459792769</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="G12" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H12" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I12" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J12" t="n">
-        <v>36.26919386777739</v>
+        <v>36.2691938677774</v>
       </c>
       <c r="K12" t="n">
-        <v>99.89115689943301</v>
+        <v>99.89115689943307</v>
       </c>
       <c r="L12" t="n">
-        <v>204.1993668012279</v>
+        <v>204.1993668012281</v>
       </c>
       <c r="M12" t="n">
-        <v>333.7616594659742</v>
+        <v>333.7616594659743</v>
       </c>
       <c r="N12" t="n">
-        <v>472.5885816837999</v>
+        <v>472.5885816838001</v>
       </c>
       <c r="O12" t="n">
-        <v>590.589076416899</v>
+        <v>590.5890764168994</v>
       </c>
       <c r="P12" t="n">
-        <v>677.4649847190638</v>
+        <v>677.4649847190642</v>
       </c>
       <c r="Q12" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="R12" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S12" t="n">
-        <v>715.3219541700619</v>
+        <v>621.2852813250461</v>
       </c>
       <c r="T12" t="n">
-        <v>715.3219541700619</v>
+        <v>464.9713081237143</v>
       </c>
       <c r="U12" t="n">
-        <v>715.3219541700619</v>
+        <v>464.9713081237143</v>
       </c>
       <c r="V12" t="n">
-        <v>715.3219541700619</v>
+        <v>464.9713081237143</v>
       </c>
       <c r="W12" t="n">
-        <v>715.3219541700619</v>
+        <v>464.9713081237143</v>
       </c>
       <c r="X12" t="n">
-        <v>688.6545619090182</v>
+        <v>464.9713081237143</v>
       </c>
       <c r="Y12" t="n">
-        <v>529.2526022728482</v>
+        <v>464.9713081237143</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="C13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="D13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="E13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="F13" t="n">
-        <v>210.7171855514426</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="G13" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H13" t="n">
-        <v>66.70910537125152</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I13" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J13" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K13" t="n">
-        <v>37.55032788682517</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L13" t="n">
-        <v>75.23712329476713</v>
+        <v>75.23712329476716</v>
       </c>
       <c r="M13" t="n">
-        <v>116.2921695945569</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N13" t="n">
-        <v>159.5533166477871</v>
+        <v>159.5533166477872</v>
       </c>
       <c r="O13" t="n">
         <v>191.2851869593632</v>
       </c>
       <c r="P13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Q13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="R13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="S13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="X13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Y13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>878.2262298963846</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="C14" t="n">
-        <v>878.2262298963846</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="D14" t="n">
-        <v>656.4519294174995</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="E14" t="n">
-        <v>434.6776289386145</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="F14" t="n">
-        <v>212.9033284597295</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G14" t="n">
-        <v>212.9033284597295</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H14" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I14" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J14" t="n">
         <v>61.76566646422691</v>
@@ -5284,46 +5284,46 @@
         <v>148.5608200474251</v>
       </c>
       <c r="L14" t="n">
-        <v>271.1830965723306</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M14" t="n">
-        <v>420.4501281543855</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N14" t="n">
-        <v>574.0010487547423</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O14" t="n">
-        <v>713.5940480809662</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P14" t="n">
         <v>818.7605380598411</v>
       </c>
       <c r="Q14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="R14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="T14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="U14" t="n">
-        <v>878.2262298963846</v>
+        <v>656.4519294174997</v>
       </c>
       <c r="V14" t="n">
-        <v>878.2262298963846</v>
+        <v>434.6776289386147</v>
       </c>
       <c r="W14" t="n">
-        <v>878.2262298963846</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="X14" t="n">
-        <v>878.2262298963846</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="Y14" t="n">
-        <v>878.2262298963846</v>
+        <v>212.9033284597296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.90644344583291</v>
+        <v>353.2561262975938</v>
       </c>
       <c r="C15" t="n">
-        <v>95.90644344583291</v>
+        <v>353.2561262975938</v>
       </c>
       <c r="D15" t="n">
-        <v>95.90644344583291</v>
+        <v>353.2561262975938</v>
       </c>
       <c r="E15" t="n">
-        <v>95.90644344583291</v>
+        <v>232.7633102899218</v>
       </c>
       <c r="F15" t="n">
-        <v>95.90644344583291</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="G15" t="n">
-        <v>95.90644344583291</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H15" t="n">
-        <v>32.41430678935677</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J15" t="n">
-        <v>36.26919386777739</v>
+        <v>36.2691938677774</v>
       </c>
       <c r="K15" t="n">
-        <v>99.89115689943301</v>
+        <v>99.8911568994331</v>
       </c>
       <c r="L15" t="n">
-        <v>204.1993668012279</v>
+        <v>204.1993668012281</v>
       </c>
       <c r="M15" t="n">
-        <v>333.7616594659742</v>
+        <v>333.7616594659744</v>
       </c>
       <c r="N15" t="n">
-        <v>472.5885816837999</v>
+        <v>472.5885816838002</v>
       </c>
       <c r="O15" t="n">
-        <v>590.589076416899</v>
+        <v>590.5890764168994</v>
       </c>
       <c r="P15" t="n">
-        <v>677.4649847190638</v>
+        <v>677.4649847190642</v>
       </c>
       <c r="Q15" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="R15" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S15" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T15" t="n">
-        <v>559.0079809687301</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="U15" t="n">
-        <v>522.8511387164704</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="V15" t="n">
-        <v>309.1396117095042</v>
+        <v>501.6104271630961</v>
       </c>
       <c r="W15" t="n">
-        <v>95.90644344583291</v>
+        <v>501.6104271630961</v>
       </c>
       <c r="X15" t="n">
-        <v>95.90644344583291</v>
+        <v>501.6104271630961</v>
       </c>
       <c r="Y15" t="n">
-        <v>95.90644344583291</v>
+        <v>493.5591589331805</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="C16" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="D16" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E16" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F16" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G16" t="n">
-        <v>161.5726047781188</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H16" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I16" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J16" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K16" t="n">
-        <v>37.55032788682517</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L16" t="n">
-        <v>75.23712329476713</v>
+        <v>75.23712329476717</v>
       </c>
       <c r="M16" t="n">
-        <v>116.2921695945569</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N16" t="n">
-        <v>159.5533166477871</v>
+        <v>159.5533166477873</v>
       </c>
       <c r="O16" t="n">
-        <v>191.2851869593632</v>
+        <v>191.2851869593633</v>
       </c>
       <c r="P16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Q16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="R16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="S16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="T16" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="U16" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="V16" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="W16" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="X16" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>331.3902286369405</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="C17" t="n">
-        <v>331.3902286369405</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="D17" t="n">
-        <v>331.3902286369405</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E17" t="n">
-        <v>331.3902286369405</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F17" t="n">
-        <v>331.3902286369405</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G17" t="n">
-        <v>271.5628356261074</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H17" t="n">
-        <v>49.78853514722242</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I17" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J17" t="n">
         <v>61.76566646422691</v>
@@ -5524,43 +5524,43 @@
         <v>271.1830965723307</v>
       </c>
       <c r="M17" t="n">
-        <v>420.4501281543857</v>
+        <v>420.4501281543858</v>
       </c>
       <c r="N17" t="n">
-        <v>574.0010487547426</v>
+        <v>574.0010487547428</v>
       </c>
       <c r="O17" t="n">
-        <v>713.5940480809667</v>
+        <v>713.5940480809669</v>
       </c>
       <c r="P17" t="n">
-        <v>818.760538059841</v>
+        <v>818.7605380598416</v>
       </c>
       <c r="Q17" t="n">
-        <v>878.2262298963846</v>
+        <v>878.226229896385</v>
       </c>
       <c r="R17" t="n">
-        <v>878.2262298963846</v>
+        <v>878.226229896385</v>
       </c>
       <c r="S17" t="n">
-        <v>774.9388295947106</v>
+        <v>878.226229896385</v>
       </c>
       <c r="T17" t="n">
-        <v>774.9388295947106</v>
+        <v>878.226229896385</v>
       </c>
       <c r="U17" t="n">
-        <v>553.1645291158255</v>
+        <v>656.4519294174999</v>
       </c>
       <c r="V17" t="n">
-        <v>331.3902286369405</v>
+        <v>656.4519294174999</v>
       </c>
       <c r="W17" t="n">
-        <v>331.3902286369405</v>
+        <v>434.6776289386147</v>
       </c>
       <c r="X17" t="n">
-        <v>331.3902286369405</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="Y17" t="n">
-        <v>331.3902286369405</v>
+        <v>17.5645245979277</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.56452459792769</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="C18" t="n">
-        <v>17.56452459792769</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="D18" t="n">
-        <v>17.56452459792769</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="E18" t="n">
-        <v>17.56452459792769</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="F18" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G18" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H18" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I18" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J18" t="n">
-        <v>36.2691938677774</v>
+        <v>36.26919386777741</v>
       </c>
       <c r="K18" t="n">
         <v>99.8911568994331</v>
@@ -5627,19 +5627,19 @@
         <v>715.3219541700623</v>
       </c>
       <c r="U18" t="n">
-        <v>620.8352017296723</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="V18" t="n">
-        <v>407.1236747227061</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="W18" t="n">
-        <v>193.8905064590349</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="X18" t="n">
-        <v>17.56452459792769</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.56452459792769</v>
+        <v>266.8274370510098</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.7171855514428</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="C19" t="n">
-        <v>210.7171855514428</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="D19" t="n">
-        <v>210.7171855514428</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E19" t="n">
-        <v>182.1956504873364</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K19" t="n">
         <v>37.55032788682519</v>
@@ -5703,22 +5703,22 @@
         <v>210.7171855514428</v>
       </c>
       <c r="T19" t="n">
-        <v>210.7171855514428</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="U19" t="n">
-        <v>210.7171855514428</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="V19" t="n">
-        <v>210.7171855514428</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="W19" t="n">
-        <v>210.7171855514428</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="X19" t="n">
-        <v>210.7171855514428</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.7171855514428</v>
+        <v>17.5645245979277</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>239.3388250768127</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="C20" t="n">
-        <v>239.3388250768127</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="D20" t="n">
-        <v>17.56452459792769</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="E20" t="n">
-        <v>17.56452459792769</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="F20" t="n">
-        <v>17.56452459792769</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="G20" t="n">
-        <v>17.56452459792769</v>
+        <v>49.78853514722243</v>
       </c>
       <c r="H20" t="n">
-        <v>17.56452459792769</v>
+        <v>49.78853514722243</v>
       </c>
       <c r="I20" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J20" t="n">
-        <v>61.76566646422702</v>
+        <v>61.76566646422707</v>
       </c>
       <c r="K20" t="n">
         <v>148.5608200474252</v>
       </c>
       <c r="L20" t="n">
-        <v>271.1830965723307</v>
+        <v>271.1830965723309</v>
       </c>
       <c r="M20" t="n">
         <v>420.4501281543859</v>
       </c>
       <c r="N20" t="n">
-        <v>574.0010487547427</v>
+        <v>574.0010487547429</v>
       </c>
       <c r="O20" t="n">
-        <v>713.5940480809667</v>
+        <v>713.5940480809669</v>
       </c>
       <c r="P20" t="n">
-        <v>818.7605380598412</v>
+        <v>818.7605380598415</v>
       </c>
       <c r="Q20" t="n">
-        <v>878.2262298963847</v>
+        <v>878.226229896385</v>
       </c>
       <c r="R20" t="n">
-        <v>878.2262298963846</v>
+        <v>878.226229896385</v>
       </c>
       <c r="S20" t="n">
-        <v>774.9388295947106</v>
+        <v>878.226229896385</v>
       </c>
       <c r="T20" t="n">
-        <v>682.8874260345827</v>
+        <v>662.1657606273686</v>
       </c>
       <c r="U20" t="n">
-        <v>682.8874260345827</v>
+        <v>440.3914601484835</v>
       </c>
       <c r="V20" t="n">
-        <v>682.8874260345827</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="W20" t="n">
-        <v>461.1131255556977</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="X20" t="n">
-        <v>461.1131255556977</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="Y20" t="n">
-        <v>239.3388250768127</v>
+        <v>271.5628356261075</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.07586953837802</v>
+        <v>483.6555393215837</v>
       </c>
       <c r="C21" t="n">
-        <v>17.56452459792769</v>
+        <v>349.6604680705294</v>
       </c>
       <c r="D21" t="n">
-        <v>17.56452459792769</v>
+        <v>232.7633102899218</v>
       </c>
       <c r="E21" t="n">
-        <v>17.56452459792769</v>
+        <v>232.7633102899218</v>
       </c>
       <c r="F21" t="n">
-        <v>17.56452459792769</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="G21" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H21" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I21" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J21" t="n">
-        <v>36.2691938677774</v>
+        <v>36.26919386777741</v>
       </c>
       <c r="K21" t="n">
-        <v>99.89115689943307</v>
+        <v>99.8911568994331</v>
       </c>
       <c r="L21" t="n">
         <v>204.1993668012281</v>
       </c>
       <c r="M21" t="n">
-        <v>333.7616594659743</v>
+        <v>333.7616594659744</v>
       </c>
       <c r="N21" t="n">
-        <v>472.5885816838001</v>
+        <v>472.5885816838002</v>
       </c>
       <c r="O21" t="n">
         <v>590.5890764168994</v>
@@ -5864,19 +5864,19 @@
         <v>715.3219541700623</v>
       </c>
       <c r="U21" t="n">
-        <v>518.0205648090155</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="V21" t="n">
-        <v>304.3090378020493</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="W21" t="n">
-        <v>91.07586953837802</v>
+        <v>659.9815211826908</v>
       </c>
       <c r="X21" t="n">
-        <v>91.07586953837802</v>
+        <v>483.6555393215837</v>
       </c>
       <c r="Y21" t="n">
-        <v>91.07586953837802</v>
+        <v>483.6555393215837</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="C22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="D22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K22" t="n">
         <v>37.55032788682519</v>
       </c>
       <c r="L22" t="n">
-        <v>75.23712329476716</v>
+        <v>75.23712329476717</v>
       </c>
       <c r="M22" t="n">
         <v>116.292169594557</v>
       </c>
       <c r="N22" t="n">
-        <v>159.5533166477872</v>
+        <v>159.5533166477873</v>
       </c>
       <c r="O22" t="n">
-        <v>191.2851869593632</v>
+        <v>191.2851869593633</v>
       </c>
       <c r="P22" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Q22" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="R22" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="S22" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="T22" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="U22" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="V22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="W22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="X22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.0983508569616</v>
+        <v>1280.481378246128</v>
       </c>
       <c r="C23" t="n">
-        <v>274.0983508569616</v>
+        <v>1280.481378246128</v>
       </c>
       <c r="D23" t="n">
-        <v>274.0983508569616</v>
+        <v>876.0174483391886</v>
       </c>
       <c r="E23" t="n">
-        <v>274.0983508569616</v>
+        <v>461.6772328560853</v>
       </c>
       <c r="F23" t="n">
-        <v>274.0983508569616</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G23" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H23" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I23" t="n">
-        <v>37.74400473526262</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J23" t="n">
-        <v>151.4749218512235</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K23" t="n">
-        <v>342.4771847987907</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L23" t="n">
-        <v>594.3775951131302</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M23" t="n">
-        <v>887.4914597655647</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N23" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O23" t="n">
         <v>1464.838169622267</v>
@@ -6010,7 +6010,7 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q23" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R23" t="n">
         <v>1887.20023676311</v>
@@ -6019,22 +6019,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T23" t="n">
-        <v>1674.798689903264</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U23" t="n">
-        <v>1417.917386049802</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="V23" t="n">
-        <v>1068.079831386282</v>
+        <v>1280.481378246128</v>
       </c>
       <c r="W23" t="n">
-        <v>684.319530521451</v>
+        <v>1280.481378246128</v>
       </c>
       <c r="X23" t="n">
-        <v>684.319530521451</v>
+        <v>1280.481378246128</v>
       </c>
       <c r="Y23" t="n">
-        <v>684.319530521451</v>
+        <v>1280.481378246128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>623.88061763002</v>
+        <v>574.0936916789681</v>
       </c>
       <c r="C24" t="n">
-        <v>489.8855463789657</v>
+        <v>440.0986204279138</v>
       </c>
       <c r="D24" t="n">
-        <v>372.9883885983581</v>
+        <v>323.2014626473062</v>
       </c>
       <c r="E24" t="n">
-        <v>252.4955725906861</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5356927731907</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G24" t="n">
-        <v>37.7440047352622</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H24" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J24" t="n">
-        <v>98.39707907527369</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K24" t="n">
         <v>232.7978194276822</v>
@@ -6098,22 +6098,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T24" t="n">
-        <v>1367.454327397351</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U24" t="n">
-        <v>1367.454327397351</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="V24" t="n">
-        <v>1153.742800390385</v>
+        <v>1263.357834075503</v>
       </c>
       <c r="W24" t="n">
-        <v>940.5096321267138</v>
+        <v>1050.124665811832</v>
       </c>
       <c r="X24" t="n">
-        <v>764.1836502656066</v>
+        <v>873.7986839507247</v>
       </c>
       <c r="Y24" t="n">
-        <v>764.1836502656066</v>
+        <v>714.3967243145547</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1346.088246826314</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="C25" t="n">
-        <v>1346.088246826314</v>
+        <v>522.7805904334414</v>
       </c>
       <c r="D25" t="n">
-        <v>1346.088246826314</v>
+        <v>363.2859457563515</v>
       </c>
       <c r="E25" t="n">
-        <v>1346.088246826314</v>
+        <v>202.3751306246709</v>
       </c>
       <c r="F25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J25" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K25" t="n">
-        <v>1427.468776269658</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L25" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M25" t="n">
-        <v>1618.446361557358</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N25" t="n">
-        <v>1717.940632749101</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O25" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P25" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R25" t="n">
-        <v>1847.103336716822</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S25" t="n">
-        <v>1678.221080048314</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T25" t="n">
-        <v>1442.965231156598</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U25" t="n">
-        <v>1346.088246826314</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V25" t="n">
-        <v>1346.088246826314</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W25" t="n">
-        <v>1346.088246826314</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X25" t="n">
-        <v>1346.088246826314</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y25" t="n">
-        <v>1346.088246826314</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>863.2383466885142</v>
+        <v>1273.862016851353</v>
       </c>
       <c r="C26" t="n">
-        <v>863.2383466885142</v>
+        <v>863.7374261646236</v>
       </c>
       <c r="D26" t="n">
-        <v>458.7744167815746</v>
+        <v>459.2734962576841</v>
       </c>
       <c r="E26" t="n">
-        <v>458.7744167815746</v>
+        <v>459.2734962576841</v>
       </c>
       <c r="F26" t="n">
-        <v>37.7440047352622</v>
+        <v>38.24308421137164</v>
       </c>
       <c r="G26" t="n">
-        <v>37.7440047352622</v>
+        <v>38.24308421137164</v>
       </c>
       <c r="H26" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I26" t="n">
-        <v>37.74400473526262</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J26" t="n">
-        <v>151.4749218512235</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K26" t="n">
-        <v>342.4771847987907</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L26" t="n">
-        <v>594.3775951131302</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M26" t="n">
-        <v>887.4914597655647</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N26" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P26" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q26" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R26" t="n">
         <v>1887.20023676311</v>
@@ -6256,22 +6256,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T26" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U26" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="V26" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="W26" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="X26" t="n">
-        <v>1674.396199404914</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="Y26" t="n">
-        <v>1273.459526353004</v>
+        <v>1273.862016851353</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>984.2245673596088</v>
+        <v>240.9351617687208</v>
       </c>
       <c r="C27" t="n">
-        <v>850.2294961085545</v>
+        <v>106.9400905176665</v>
       </c>
       <c r="D27" t="n">
-        <v>733.3323383279469</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="E27" t="n">
-        <v>612.8395223202749</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="F27" t="n">
-        <v>503.8796425027795</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="G27" t="n">
-        <v>498.0316455122934</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H27" t="n">
-        <v>498.0316455122934</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I27" t="n">
-        <v>498.5685927704026</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J27" t="n">
-        <v>558.6847198523049</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K27" t="n">
-        <v>693.0854602047134</v>
+        <v>232.7978194276822</v>
       </c>
       <c r="L27" t="n">
-        <v>892.5644708578968</v>
+        <v>432.2768300808657</v>
       </c>
       <c r="M27" t="n">
-        <v>1133.186599082843</v>
+        <v>672.8989583058121</v>
       </c>
       <c r="N27" t="n">
-        <v>1386.012780239293</v>
+        <v>925.7251394622621</v>
       </c>
       <c r="O27" t="n">
-        <v>1608.300325338226</v>
+        <v>1148.012684561194</v>
       </c>
       <c r="P27" t="n">
-        <v>1778.87578566774</v>
+        <v>1318.588144890709</v>
       </c>
       <c r="Q27" t="n">
-        <v>1872.683689066186</v>
+        <v>1412.396048289155</v>
       </c>
       <c r="R27" t="n">
-        <v>1887.20023676311</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="S27" t="n">
-        <v>1887.20023676311</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T27" t="n">
-        <v>1887.20023676311</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="U27" t="n">
-        <v>1887.20023676311</v>
+        <v>1143.910831172222</v>
       </c>
       <c r="V27" t="n">
-        <v>1673.488709756144</v>
+        <v>930.1993041652559</v>
       </c>
       <c r="W27" t="n">
-        <v>1460.255541492473</v>
+        <v>716.9661359015846</v>
       </c>
       <c r="X27" t="n">
-        <v>1283.929559631365</v>
+        <v>540.6401540404775</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.527599995195</v>
+        <v>381.2381944043075</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1346.088246826314</v>
+        <v>337.9132396096878</v>
       </c>
       <c r="C28" t="n">
-        <v>1346.088246826314</v>
+        <v>337.9132396096878</v>
       </c>
       <c r="D28" t="n">
-        <v>1346.088246826314</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="E28" t="n">
-        <v>1346.088246826314</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="F28" t="n">
-        <v>1346.088246826314</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="G28" t="n">
-        <v>1346.088246826314</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H28" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I28" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J28" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K28" t="n">
-        <v>1427.468776269658</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L28" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M28" t="n">
-        <v>1618.446361557358</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N28" t="n">
-        <v>1717.940632749101</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O28" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P28" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q28" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R28" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S28" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T28" t="n">
-        <v>1651.944387871395</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U28" t="n">
-        <v>1369.201043270262</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V28" t="n">
-        <v>1346.088246826314</v>
+        <v>337.9132396096878</v>
       </c>
       <c r="W28" t="n">
-        <v>1346.088246826314</v>
+        <v>337.9132396096878</v>
       </c>
       <c r="X28" t="n">
-        <v>1346.088246826314</v>
+        <v>337.9132396096878</v>
       </c>
       <c r="Y28" t="n">
-        <v>1346.088246826314</v>
+        <v>337.9132396096878</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>873.114632264678</v>
+        <v>1687.703152858347</v>
       </c>
       <c r="C29" t="n">
-        <v>873.114632264678</v>
+        <v>1277.578562171617</v>
       </c>
       <c r="D29" t="n">
         <v>873.114632264678</v>
@@ -6451,34 +6451,34 @@
         <v>458.7744167815746</v>
       </c>
       <c r="F29" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="G29" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H29" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I29" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526271</v>
       </c>
       <c r="J29" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512236</v>
       </c>
       <c r="K29" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987909</v>
       </c>
       <c r="L29" t="n">
-        <v>594.3775951131298</v>
+        <v>594.3775951131302</v>
       </c>
       <c r="M29" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655645</v>
       </c>
       <c r="N29" t="n">
-        <v>1187.216805582613</v>
+        <v>1187.216805582614</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P29" t="n">
         <v>1687.808675484973</v>
@@ -6487,28 +6487,28 @@
         <v>1835.740277181655</v>
       </c>
       <c r="R29" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S29" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="T29" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="U29" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="V29" t="n">
-        <v>1887.20023676311</v>
+        <v>1687.703152858347</v>
       </c>
       <c r="W29" t="n">
-        <v>1503.439935898279</v>
+        <v>1687.703152858347</v>
       </c>
       <c r="X29" t="n">
-        <v>1102.796538067231</v>
+        <v>1687.703152858347</v>
       </c>
       <c r="Y29" t="n">
-        <v>1102.796538067231</v>
+        <v>1687.703152858347</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>171.7390759863165</v>
+        <v>288.6362337669241</v>
       </c>
       <c r="C30" t="n">
-        <v>37.7440047352622</v>
+        <v>154.6411625158698</v>
       </c>
       <c r="D30" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="E30" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="F30" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="G30" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H30" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I30" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337147</v>
       </c>
       <c r="J30" t="n">
         <v>98.39707907527369</v>
@@ -6569,25 +6569,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S30" t="n">
-        <v>1341.182798307179</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T30" t="n">
-        <v>1271.986712524774</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U30" t="n">
-        <v>1074.714745389818</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V30" t="n">
-        <v>861.0032183828515</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W30" t="n">
-        <v>647.7700501191803</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X30" t="n">
-        <v>471.4440682580731</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y30" t="n">
-        <v>312.0421086219031</v>
+        <v>312.4566206003316</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1887.20023676311</v>
+        <v>425.4608164806446</v>
       </c>
       <c r="C31" t="n">
-        <v>1831.124832524494</v>
+        <v>425.4608164806446</v>
       </c>
       <c r="D31" t="n">
-        <v>1671.630187847404</v>
+        <v>425.4608164806446</v>
       </c>
       <c r="E31" t="n">
-        <v>1510.719372715723</v>
+        <v>264.550001348964</v>
       </c>
       <c r="F31" t="n">
-        <v>1346.088246826314</v>
+        <v>264.550001348964</v>
       </c>
       <c r="G31" t="n">
-        <v>1346.088246826314</v>
+        <v>264.550001348964</v>
       </c>
       <c r="H31" t="n">
-        <v>1346.088246826314</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="I31" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="J31" t="n">
-        <v>1364.789494308498</v>
+        <v>56.44525221744571</v>
       </c>
       <c r="K31" t="n">
-        <v>1427.468776269658</v>
+        <v>119.1245341786055</v>
       </c>
       <c r="L31" t="n">
-        <v>1519.788525527848</v>
+        <v>211.4442834367961</v>
       </c>
       <c r="M31" t="n">
-        <v>1618.446361557358</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N31" t="n">
-        <v>1717.940632749101</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O31" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P31" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q31" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R31" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S31" t="n">
-        <v>1887.20023676311</v>
+        <v>425.4608164806446</v>
       </c>
       <c r="T31" t="n">
-        <v>1887.20023676311</v>
+        <v>425.4608164806446</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.20023676311</v>
+        <v>425.4608164806446</v>
       </c>
       <c r="V31" t="n">
-        <v>1887.20023676311</v>
+        <v>425.4608164806446</v>
       </c>
       <c r="W31" t="n">
-        <v>1887.20023676311</v>
+        <v>425.4608164806446</v>
       </c>
       <c r="X31" t="n">
-        <v>1887.20023676311</v>
+        <v>425.4608164806446</v>
       </c>
       <c r="Y31" t="n">
-        <v>1887.20023676311</v>
+        <v>425.4608164806446</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>732.2020882765901</v>
+        <v>1016.980712997892</v>
       </c>
       <c r="C32" t="n">
-        <v>732.2020882765901</v>
+        <v>1016.980712997892</v>
       </c>
       <c r="D32" t="n">
-        <v>732.2020882765901</v>
+        <v>612.5167830909526</v>
       </c>
       <c r="E32" t="n">
-        <v>732.2020882765901</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F32" t="n">
-        <v>732.2020882765901</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="G32" t="n">
-        <v>325.7136527572681</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H32" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I32" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526248</v>
       </c>
       <c r="J32" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512234</v>
       </c>
       <c r="K32" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987909</v>
       </c>
       <c r="L32" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131302</v>
       </c>
       <c r="M32" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655645</v>
       </c>
       <c r="N32" t="n">
-        <v>1187.216805582613</v>
+        <v>1187.216805582614</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P32" t="n">
         <v>1687.808675484973</v>
@@ -6730,22 +6730,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T32" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U32" t="n">
-        <v>1866.443341635988</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="V32" t="n">
-        <v>1516.605786972469</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="W32" t="n">
-        <v>1132.845486107637</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="X32" t="n">
-        <v>732.2020882765901</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="Y32" t="n">
-        <v>732.2020882765901</v>
+        <v>1016.980712997892</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>409.1290497745961</v>
+        <v>683.0535714964635</v>
       </c>
       <c r="C33" t="n">
-        <v>275.1339785235418</v>
+        <v>549.0585002454092</v>
       </c>
       <c r="D33" t="n">
-        <v>158.2368207429342</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E33" t="n">
-        <v>37.7440047352622</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F33" t="n">
-        <v>37.7440047352622</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G33" t="n">
-        <v>37.7440047352622</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H33" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337147</v>
       </c>
       <c r="J33" t="n">
         <v>98.39707907527369</v>
@@ -6812,19 +6812,19 @@
         <v>1426.912595986079</v>
       </c>
       <c r="U33" t="n">
-        <v>1312.104719178097</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="V33" t="n">
-        <v>1098.393192171131</v>
+        <v>1213.201068979113</v>
       </c>
       <c r="W33" t="n">
-        <v>885.1600239074598</v>
+        <v>999.9679007154415</v>
       </c>
       <c r="X33" t="n">
-        <v>708.8340420463527</v>
+        <v>982.7585637682201</v>
       </c>
       <c r="Y33" t="n">
-        <v>549.4320824101827</v>
+        <v>823.3566041320502</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="C34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="D34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="E34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="F34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="G34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="J34" t="n">
-        <v>1364.789494308498</v>
+        <v>56.44525221744571</v>
       </c>
       <c r="K34" t="n">
-        <v>1427.468776269658</v>
+        <v>119.1245341786055</v>
       </c>
       <c r="L34" t="n">
-        <v>1519.788525527848</v>
+        <v>211.4442834367961</v>
       </c>
       <c r="M34" t="n">
-        <v>1618.446361557358</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N34" t="n">
-        <v>1717.940632749101</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O34" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P34" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.20023676311</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="V34" t="n">
-        <v>1887.20023676311</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="W34" t="n">
-        <v>1887.20023676311</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="X34" t="n">
-        <v>1648.856374622794</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="Y34" t="n">
-        <v>1424.120676011558</v>
+        <v>37.74400473526221</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1537.362682099591</v>
+        <v>1277.578562171617</v>
       </c>
       <c r="C35" t="n">
-        <v>1537.362682099591</v>
+        <v>1277.578562171617</v>
       </c>
       <c r="D35" t="n">
-        <v>1537.362682099591</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E35" t="n">
-        <v>1123.022466616487</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F35" t="n">
-        <v>701.992054570175</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G35" t="n">
-        <v>295.503619050853</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H35" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="I35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J35" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K35" t="n">
         <v>342.4771847987903</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131299</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M35" t="n">
         <v>887.4914597655643</v>
@@ -6967,22 +6967,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T35" t="n">
-        <v>1887.20023676311</v>
+        <v>1678.221960002665</v>
       </c>
       <c r="U35" t="n">
-        <v>1887.20023676311</v>
+        <v>1678.221960002665</v>
       </c>
       <c r="V35" t="n">
-        <v>1537.362682099591</v>
+        <v>1678.221960002665</v>
       </c>
       <c r="W35" t="n">
-        <v>1537.362682099591</v>
+        <v>1678.221960002665</v>
       </c>
       <c r="X35" t="n">
-        <v>1537.362682099591</v>
+        <v>1277.578562171617</v>
       </c>
       <c r="Y35" t="n">
-        <v>1537.362682099591</v>
+        <v>1277.578562171617</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>518.0889295920915</v>
+        <v>326.6649594476208</v>
       </c>
       <c r="C36" t="n">
-        <v>384.0938583410372</v>
+        <v>326.6649594476208</v>
       </c>
       <c r="D36" t="n">
-        <v>267.1967005604296</v>
+        <v>209.7678016670133</v>
       </c>
       <c r="E36" t="n">
-        <v>146.7038845527576</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="F36" t="n">
-        <v>37.7440047352622</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="G36" t="n">
-        <v>37.7440047352622</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H36" t="n">
         <v>37.7440047352622</v>
@@ -7043,25 +7043,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S36" t="n">
-        <v>1362.342802214797</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T36" t="n">
-        <v>1207.831430731922</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="U36" t="n">
-        <v>1207.831430731922</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V36" t="n">
-        <v>994.1199037249553</v>
+        <v>1015.929101844156</v>
       </c>
       <c r="W36" t="n">
-        <v>994.1199037249553</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="X36" t="n">
-        <v>817.7939218638481</v>
+        <v>626.3699517193775</v>
       </c>
       <c r="Y36" t="n">
-        <v>658.3919622276782</v>
+        <v>466.9679920832075</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.4205896667782</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="C37" t="n">
-        <v>37.7440047352622</v>
+        <v>172.506773342059</v>
       </c>
       <c r="D37" t="n">
-        <v>37.7440047352622</v>
+        <v>172.506773342059</v>
       </c>
       <c r="E37" t="n">
-        <v>37.7440047352622</v>
+        <v>172.506773342059</v>
       </c>
       <c r="F37" t="n">
         <v>37.7440047352622</v>
@@ -7125,22 +7125,22 @@
         <v>578.8559946720579</v>
       </c>
       <c r="T37" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="U37" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="V37" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="W37" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="X37" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="Y37" t="n">
-        <v>354.1202960608226</v>
+        <v>343.6001457803425</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1076.042384046711</v>
+        <v>1283.239222951408</v>
       </c>
       <c r="C38" t="n">
-        <v>1076.042384046711</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D38" t="n">
-        <v>1076.042384046711</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E38" t="n">
-        <v>661.7021685636075</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F38" t="n">
-        <v>240.6717565172951</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G38" t="n">
         <v>37.7440047352622</v>
@@ -7171,7 +7171,7 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I38" t="n">
-        <v>37.74400473526225</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J38" t="n">
         <v>151.4749218512229</v>
@@ -7180,10 +7180,10 @@
         <v>342.4771847987904</v>
       </c>
       <c r="L38" t="n">
-        <v>594.3775951131298</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N38" t="n">
         <v>1187.216805582613</v>
@@ -7201,25 +7201,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S38" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T38" t="n">
-        <v>1887.20023676311</v>
+        <v>1666.999523816239</v>
       </c>
       <c r="U38" t="n">
-        <v>1887.20023676311</v>
+        <v>1666.999523816239</v>
       </c>
       <c r="V38" t="n">
-        <v>1887.20023676311</v>
+        <v>1666.999523816239</v>
       </c>
       <c r="W38" t="n">
-        <v>1887.20023676311</v>
+        <v>1283.239222951408</v>
       </c>
       <c r="X38" t="n">
-        <v>1887.20023676311</v>
+        <v>1283.239222951408</v>
       </c>
       <c r="Y38" t="n">
-        <v>1486.2635637112</v>
+        <v>1283.239222951408</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>523.9369265825777</v>
+        <v>326.6649594476208</v>
       </c>
       <c r="C39" t="n">
-        <v>389.9418553315234</v>
+        <v>192.6698881965665</v>
       </c>
       <c r="D39" t="n">
-        <v>273.0446975509158</v>
+        <v>158.2368207429342</v>
       </c>
       <c r="E39" t="n">
-        <v>152.5518815432438</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F39" t="n">
-        <v>43.59200172574839</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G39" t="n">
         <v>37.7440047352622</v>
@@ -7286,19 +7286,19 @@
         <v>1426.912595986079</v>
       </c>
       <c r="U39" t="n">
-        <v>1426.912595986079</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V39" t="n">
-        <v>1213.201068979113</v>
+        <v>1015.929101844156</v>
       </c>
       <c r="W39" t="n">
-        <v>999.9679007154415</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="X39" t="n">
-        <v>823.6419188543343</v>
+        <v>626.3699517193775</v>
       </c>
       <c r="Y39" t="n">
-        <v>664.2399592181644</v>
+        <v>466.9679920832075</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.7440047352622</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="C40" t="n">
-        <v>37.7440047352622</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="D40" t="n">
         <v>37.7440047352622</v>
@@ -7359,25 +7359,25 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S40" t="n">
-        <v>578.8559946720579</v>
+        <v>476.3083139034778</v>
       </c>
       <c r="T40" t="n">
-        <v>578.8559946720579</v>
+        <v>476.3083139034778</v>
       </c>
       <c r="U40" t="n">
-        <v>578.8559946720579</v>
+        <v>476.3083139034778</v>
       </c>
       <c r="V40" t="n">
-        <v>578.8559946720579</v>
+        <v>476.3083139034778</v>
       </c>
       <c r="W40" t="n">
-        <v>578.8559946720579</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="X40" t="n">
-        <v>450.1794097405419</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.4437111293066</v>
+        <v>197.2386494123522</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1503.439935898279</v>
+        <v>1264.577510238774</v>
       </c>
       <c r="C41" t="n">
-        <v>1503.439935898279</v>
+        <v>858.5726557376875</v>
       </c>
       <c r="D41" t="n">
-        <v>1503.439935898279</v>
+        <v>858.5726557376875</v>
       </c>
       <c r="E41" t="n">
-        <v>1089.099720415175</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F41" t="n">
-        <v>668.0693083688629</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G41" t="n">
-        <v>261.5808728495409</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H41" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="I41" t="n">
-        <v>37.74400473526171</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J41" t="n">
-        <v>151.4749218512225</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K41" t="n">
-        <v>342.4771847987898</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L41" t="n">
-        <v>594.3775951131292</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M41" t="n">
-        <v>887.4914597655638</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N41" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O41" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P41" t="n">
         <v>1687.808675484973</v>
@@ -7441,22 +7441,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T41" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U41" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="V41" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="W41" t="n">
-        <v>1503.439935898279</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="X41" t="n">
-        <v>1503.439935898279</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="Y41" t="n">
-        <v>1503.439935898279</v>
+        <v>1674.798689903264</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0889295920915</v>
+        <v>619.423698918079</v>
       </c>
       <c r="C42" t="n">
-        <v>384.0938583410372</v>
+        <v>485.4286276670247</v>
       </c>
       <c r="D42" t="n">
-        <v>267.1967005604296</v>
+        <v>368.5314698864171</v>
       </c>
       <c r="E42" t="n">
-        <v>146.7038845527576</v>
+        <v>248.0386538787451</v>
       </c>
       <c r="F42" t="n">
-        <v>37.7440047352622</v>
+        <v>139.0787740612497</v>
       </c>
       <c r="G42" t="n">
         <v>37.7440047352622</v>
@@ -7517,25 +7517,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S42" t="n">
-        <v>1426.912595986079</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T42" t="n">
-        <v>1272.401224503203</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="U42" t="n">
-        <v>1121.359606723836</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="V42" t="n">
-        <v>907.64807971687</v>
+        <v>972.9598998173369</v>
       </c>
       <c r="W42" t="n">
-        <v>694.4149114531988</v>
+        <v>759.7267315536657</v>
       </c>
       <c r="X42" t="n">
-        <v>518.0889295920915</v>
+        <v>759.7267315536657</v>
       </c>
       <c r="Y42" t="n">
-        <v>518.0889295920915</v>
+        <v>759.7267315536657</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.7440047352622</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="C43" t="n">
-        <v>37.7440047352622</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="D43" t="n">
-        <v>37.7440047352622</v>
+        <v>250.4790933264601</v>
       </c>
       <c r="E43" t="n">
-        <v>37.7440047352622</v>
+        <v>89.56827819477957</v>
       </c>
       <c r="F43" t="n">
         <v>37.7440047352622</v>
@@ -7593,28 +7593,28 @@
         <v>578.8559946720579</v>
       </c>
       <c r="R43" t="n">
-        <v>538.7590946257694</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S43" t="n">
-        <v>369.8768379572616</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="T43" t="n">
-        <v>262.4797033464975</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="U43" t="n">
-        <v>262.4797033464975</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="V43" t="n">
-        <v>262.4797033464975</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="W43" t="n">
-        <v>262.4797033464975</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="X43" t="n">
-        <v>262.4797033464975</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.7440047352622</v>
+        <v>409.9737380035501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>873.114632264678</v>
+        <v>1279.603067784</v>
       </c>
       <c r="C44" t="n">
-        <v>873.114632264678</v>
+        <v>1279.603067784</v>
       </c>
       <c r="D44" t="n">
-        <v>873.114632264678</v>
+        <v>1279.603067784</v>
       </c>
       <c r="E44" t="n">
-        <v>458.7744167815746</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F44" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G44" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H44" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I44" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J44" t="n">
-        <v>151.4749218512231</v>
+        <v>151.474921851223</v>
       </c>
       <c r="K44" t="n">
         <v>342.4771847987903</v>
       </c>
       <c r="L44" t="n">
-        <v>594.3775951131299</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M44" t="n">
         <v>887.4914597655643</v>
@@ -7681,19 +7681,19 @@
         <v>1887.20023676311</v>
       </c>
       <c r="U44" t="n">
-        <v>1887.20023676311</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="V44" t="n">
-        <v>1537.36268209959</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="W44" t="n">
-        <v>1153.602381234759</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="X44" t="n">
-        <v>873.114632264678</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="Y44" t="n">
-        <v>873.114632264678</v>
+        <v>1630.318932909648</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>623.88061763002</v>
+        <v>292.2318919939885</v>
       </c>
       <c r="C45" t="n">
-        <v>489.8855463789657</v>
+        <v>158.2368207429342</v>
       </c>
       <c r="D45" t="n">
-        <v>372.9883885983581</v>
+        <v>158.2368207429342</v>
       </c>
       <c r="E45" t="n">
-        <v>252.4955725906861</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5356927731907</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G45" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H45" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J45" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K45" t="n">
         <v>232.7978194276822</v>
@@ -7754,25 +7754,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S45" t="n">
-        <v>1426.912595986079</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T45" t="n">
-        <v>1426.912595986079</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="U45" t="n">
-        <v>1313.62311876985</v>
+        <v>989.3994596893464</v>
       </c>
       <c r="V45" t="n">
-        <v>1099.911591762884</v>
+        <v>775.6879326823802</v>
       </c>
       <c r="W45" t="n">
-        <v>1099.911591762884</v>
+        <v>562.4547644187089</v>
       </c>
       <c r="X45" t="n">
-        <v>923.5856099017766</v>
+        <v>451.6338516301585</v>
       </c>
       <c r="Y45" t="n">
-        <v>764.1836502656066</v>
+        <v>292.2318919939885</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>369.7481923052262</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="C46" t="n">
-        <v>198.6548198669427</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D46" t="n">
-        <v>198.6548198669427</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J46" t="n">
         <v>56.4452522174457</v>
@@ -7836,22 +7836,22 @@
         <v>578.8559946720579</v>
       </c>
       <c r="T46" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="U46" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="V46" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="W46" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="X46" t="n">
-        <v>578.8559946720579</v>
+        <v>105.2562836400259</v>
       </c>
       <c r="Y46" t="n">
-        <v>557.4478986992706</v>
+        <v>105.2562836400259</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374.8521347175049</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>374.7565116295229</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>381.7306172164842</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>398.1314345344645</v>
       </c>
       <c r="G2" t="n">
         <v>403.9316432678622</v>
       </c>
       <c r="H2" t="n">
-        <v>300.5346997991464</v>
+        <v>300.5346997991465</v>
       </c>
       <c r="I2" t="n">
-        <v>58.14072082918582</v>
+        <v>58.14072082918591</v>
       </c>
       <c r="J2" t="n">
-        <v>13.11771793070498</v>
+        <v>13.11771793070518</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.43112086737291</v>
+        <v>13.43112086737317</v>
       </c>
       <c r="R2" t="n">
-        <v>42.75293345816441</v>
+        <v>42.75293345816456</v>
       </c>
       <c r="S2" t="n">
         <v>117.7637690690856</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8792045753409</v>
+        <v>185.6123714250017</v>
       </c>
       <c r="U2" t="n">
-        <v>223.1663050328866</v>
+        <v>223.166305032887</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>315.0723459665448</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.3601756704116</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>84.4613530524622</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>76.60344786898118</v>
       </c>
       <c r="G3" t="n">
-        <v>105.5406715694666</v>
+        <v>74.27383841912734</v>
       </c>
       <c r="H3" t="n">
-        <v>66.37418356919193</v>
+        <v>66.37418356919194</v>
       </c>
       <c r="I3" t="n">
-        <v>27.23906865305355</v>
+        <v>27.23906865305359</v>
       </c>
       <c r="J3" t="n">
-        <v>15.51103305293332</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,16 +22670,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.244671795650241</v>
+        <v>8.244671795650412</v>
       </c>
       <c r="R3" t="n">
-        <v>35.43542678492464</v>
+        <v>35.43542678492472</v>
       </c>
       <c r="S3" t="n">
-        <v>99.86032094978735</v>
+        <v>99.86032094978738</v>
       </c>
       <c r="T3" t="n">
-        <v>124.9517995236376</v>
+        <v>144.1898390880919</v>
       </c>
       <c r="U3" t="n">
         <v>195.3523330170228</v>
@@ -22691,10 +22691,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>143.2958888921564</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>126.5411068894686</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -22719,7 +22719,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.2596935862255</v>
+        <v>165.2596935862256</v>
       </c>
       <c r="H4" t="n">
         <v>145.2823504718546</v>
@@ -22728,34 +22728,34 @@
         <v>105.6136367610331</v>
       </c>
       <c r="J4" t="n">
-        <v>28.93685975466208</v>
+        <v>28.93685975466215</v>
       </c>
       <c r="K4" t="n">
-        <v>15.28206119291164</v>
+        <v>15.28206119291176</v>
       </c>
       <c r="L4" t="n">
-        <v>7.321586928322304</v>
+        <v>7.321586928322468</v>
       </c>
       <c r="M4" t="n">
-        <v>6.386652893332943</v>
+        <v>6.386652893333114</v>
       </c>
       <c r="N4" t="n">
-        <v>3.020350146330955</v>
+        <v>3.020350146331126</v>
       </c>
       <c r="O4" t="n">
-        <v>11.09968222972707</v>
+        <v>11.09968222972721</v>
       </c>
       <c r="P4" t="n">
-        <v>17.29577477735951</v>
+        <v>17.29577477735965</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.71515254876316</v>
+        <v>34.71515254876326</v>
       </c>
       <c r="R4" t="n">
-        <v>70.11285083000821</v>
+        <v>70.11285083000826</v>
       </c>
       <c r="S4" t="n">
-        <v>178.9826041839655</v>
+        <v>178.9826041839656</v>
       </c>
       <c r="T4" t="n">
         <v>235.7936972565318</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>373.0631564976389</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>367.3634792376643</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22798,16 +22798,16 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>403.8959782144399</v>
+        <v>366.3666737523534</v>
       </c>
       <c r="H5" t="n">
-        <v>300.1694450707848</v>
+        <v>262.6401406086983</v>
       </c>
       <c r="I5" t="n">
-        <v>56.76574385712079</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J5" t="n">
-        <v>10.09069110280006</v>
+        <v>10.09069110280002</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.579696329610442</v>
+        <v>9.579696329610385</v>
       </c>
       <c r="R5" t="n">
-        <v>2.983284084036519</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S5" t="n">
-        <v>79.42174720213742</v>
+        <v>116.9510516642238</v>
       </c>
       <c r="T5" t="n">
         <v>216.7230808039846</v>
@@ -22843,13 +22843,13 @@
         <v>254.4302849789525</v>
       </c>
       <c r="V5" t="n">
-        <v>308.8098746547977</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>359.1076593906505</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -22880,13 +22880,13 @@
         <v>105.5215890835718</v>
       </c>
       <c r="H6" t="n">
-        <v>66.18988692910271</v>
+        <v>28.66058246701623</v>
       </c>
       <c r="I6" t="n">
-        <v>26.58206201150026</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>9.76455075802888</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,13 +22913,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>61.97656768171648</v>
+        <v>61.9765676817164</v>
       </c>
       <c r="T6" t="n">
-        <v>118.6124124025167</v>
+        <v>156.1417168646031</v>
       </c>
       <c r="U6" t="n">
-        <v>178.5335663368481</v>
+        <v>195.3510775903192</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -22965,28 +22965,28 @@
         <v>105.1325298071908</v>
       </c>
       <c r="J7" t="n">
-        <v>27.80579301341919</v>
+        <v>27.80579301341917</v>
       </c>
       <c r="K7" t="n">
-        <v>13.42337108707596</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L7" t="n">
-        <v>4.943103517458709</v>
+        <v>4.943103517458681</v>
       </c>
       <c r="M7" t="n">
-        <v>3.878875624559498</v>
+        <v>3.878875624559463</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5722022158511422</v>
+        <v>0.5722022158511066</v>
       </c>
       <c r="O7" t="n">
-        <v>8.838421371704122</v>
+        <v>8.838421371704094</v>
       </c>
       <c r="P7" t="n">
-        <v>15.36087546843636</v>
+        <v>15.36087546843633</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37552856090304</v>
+        <v>33.37552856090301</v>
       </c>
       <c r="R7" t="n">
         <v>69.39351739781233</v>
@@ -23026,16 +23026,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>360.4260140374668</v>
       </c>
       <c r="E8" t="n">
-        <v>370.203536757869</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>371.4144805752553</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>358.4601904813899</v>
+        <v>403.865817831984</v>
       </c>
       <c r="H8" t="n">
         <v>254.4549377033642</v>
@@ -23071,7 +23071,7 @@
         <v>38.61802642167716</v>
       </c>
       <c r="S8" t="n">
-        <v>116.2637719490099</v>
+        <v>70.85814459841581</v>
       </c>
       <c r="T8" t="n">
         <v>216.5910537297839</v>
@@ -23080,7 +23080,7 @@
         <v>254.427872148356</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>300.9335517662901</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -23102,10 +23102,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>87.24949318794967</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>75.73490963239826</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
@@ -23114,16 +23114,16 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.5054518562984</v>
+        <v>60.0998245057043</v>
       </c>
       <c r="H9" t="n">
         <v>66.03403528675115</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.02646010756757</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>12.18354252066408</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>3.748906304207694</v>
       </c>
       <c r="R9" t="n">
-        <v>31.4654411777977</v>
+        <v>33.24871511996928</v>
       </c>
       <c r="S9" t="n">
         <v>53.80050287433556</v>
       </c>
       <c r="T9" t="n">
-        <v>110.671045163727</v>
+        <v>156.076672514321</v>
       </c>
       <c r="U9" t="n">
         <v>195.3500159306301</v>
       </c>
       <c r="V9" t="n">
-        <v>211.5744117368965</v>
+        <v>166.1687843863024</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -23193,7 +23193,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.2301665618121</v>
+        <v>163.7618886788467</v>
       </c>
       <c r="H10" t="n">
         <v>145.0198283820698</v>
@@ -23217,7 +23217,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.457893659671917</v>
+        <v>6.926171542637363</v>
       </c>
       <c r="P10" t="n">
         <v>13.7246153883036</v>
@@ -23266,19 +23266,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>313.4092309059755</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517531</v>
       </c>
       <c r="G11" t="n">
-        <v>183.6944827100392</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H11" t="n">
-        <v>74.00791599383149</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>31.90177044380178</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3786899365281</v>
       </c>
       <c r="V11" t="n">
-        <v>126.782621642788</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>218.4390524768011</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>177.3707488472946</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>22.0570905306845</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>62.85721528991137</v>
       </c>
       <c r="I12" t="n">
-        <v>14.70128436951479</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>12.8258886552718</v>
       </c>
       <c r="S12" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>195.3283754674364</v>
@@ -23402,10 +23402,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>148.1620037040629</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23427,19 +23427,19 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>136.7180787599983</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9543984734636</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I13" t="n">
-        <v>47.77944513165573</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J13" t="n">
-        <v>7.352495282391892</v>
+        <v>7.352495282391885</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.150849970123495</v>
+        <v>9.150849970123488</v>
       </c>
       <c r="R13" t="n">
         <v>56.38567239618433</v>
@@ -23500,22 +23500,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>180.8627331337739</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>190.6402558541761</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>197.2635504517532</v>
+        <v>223.4346921026654</v>
       </c>
       <c r="G14" t="n">
         <v>403.2510401841353</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1790576447439</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90177044380179</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>213.8998645763261</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3786899365281</v>
+        <v>34.82213246243194</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>126.7826216427879</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>160.3661403820869</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>132.6551205385437</v>
@@ -23582,19 +23582,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.8258886552718</v>
+        <v>12.82588865527179</v>
       </c>
       <c r="S15" t="n">
         <v>93.09630611656613</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U15" t="n">
-        <v>159.5331016376993</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>149.8371844921918</v>
       </c>
     </row>
     <row r="16">
@@ -23667,16 +23667,16 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>116.301263507873</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I16" t="n">
         <v>96.43258009724633</v>
       </c>
       <c r="J16" t="n">
-        <v>7.352495282391892</v>
+        <v>7.352495282391878</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.150849970123495</v>
+        <v>9.150849970123481</v>
       </c>
       <c r="R16" t="n">
         <v>56.38567239618433</v>
@@ -23706,7 +23706,7 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T16" t="n">
-        <v>234.4892545020035</v>
+        <v>43.26812015802349</v>
       </c>
       <c r="U16" t="n">
         <v>279.9361575053235</v>
@@ -23746,13 +23746,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>344.0219211034105</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H17" t="n">
-        <v>74.00791599383146</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T17" t="n">
         <v>213.8998645763261</v>
       </c>
       <c r="U17" t="n">
-        <v>34.82213246243198</v>
+        <v>34.82213246243188</v>
       </c>
       <c r="V17" t="n">
-        <v>126.782621642788</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>160.3661403820869</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>203.2515480295532</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>177.3707488472945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
@@ -23822,7 +23822,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>105.1765168157536</v>
@@ -23867,19 +23867,19 @@
         <v>154.7508334693185</v>
       </c>
       <c r="U18" t="n">
-        <v>101.7864905514503</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>120.7011552962792</v>
       </c>
     </row>
     <row r="19">
@@ -23898,10 +23898,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>131.0653872668984</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>164.9543984734636</v>
@@ -23943,7 +23943,7 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T19" t="n">
-        <v>234.4892545020035</v>
+        <v>43.26812015802349</v>
       </c>
       <c r="U19" t="n">
         <v>279.9361575053235</v>
@@ -23974,7 +23974,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>180.8627331337739</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -23983,13 +23983,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>403.2510401841353</v>
+        <v>183.694482710039</v>
       </c>
       <c r="H20" t="n">
         <v>293.5644734679276</v>
       </c>
       <c r="I20" t="n">
-        <v>31.90177044380178</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T20" t="n">
-        <v>122.7689750517996</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3786899365281</v>
+        <v>34.82213246243188</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>179.1988408397319</v>
       </c>
       <c r="W20" t="n">
-        <v>160.366140382087</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>177.3707488472947</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24050,19 +24050,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>59.87888904749792</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>62.85721528991137</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.8258886552718</v>
+        <v>12.82588865527179</v>
       </c>
       <c r="S21" t="n">
         <v>93.09630611656613</v>
@@ -24104,16 +24104,16 @@
         <v>154.7508334693185</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>156.3138079235367</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -24150,7 +24150,7 @@
         <v>96.43258009724633</v>
       </c>
       <c r="J22" t="n">
-        <v>7.352495282391885</v>
+        <v>7.352495282391878</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.150849970123488</v>
+        <v>9.150849970123481</v>
       </c>
       <c r="R22" t="n">
         <v>56.38567239618433</v>
@@ -24183,10 +24183,10 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U22" t="n">
-        <v>88.71502316134365</v>
+        <v>279.9361575053235</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>79.92575326589329</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>399.5497632503632</v>
       </c>
       <c r="G23" t="n">
-        <v>168.4327485036464</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>285.0899515417858</v>
@@ -24259,7 +24259,7 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24338,13 +24338,13 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T24" t="n">
-        <v>94.10257186520673</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>195.2992474636072</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>202.6214552134734</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,16 +24366,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>113.8677885176703</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5832153864156</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U25" t="n">
-        <v>184.0076966681399</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>402.4235511641288</v>
       </c>
       <c r="H26" t="n">
-        <v>285.0899515417858</v>
+        <v>284.5958628604374</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T26" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.3124908149276</v>
@@ -24508,7 +24508,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>185.9609668681225</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24527,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>105.8052856060002</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>98.944254136968</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H27" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U27" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24618,7 +24618,7 @@
         <v>164.5832153864156</v>
       </c>
       <c r="H28" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>85.27009235220248</v>
@@ -24654,13 +24654,13 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V28" t="n">
-        <v>248.2652191303648</v>
+        <v>32.61356009812687</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>178.7338811233168</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>148.8370660511687</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>115.3178193441573</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>119.2878878475953</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T30" t="n">
-        <v>84.46213284346643</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>113.8677885176705</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>164.5832153864156</v>
       </c>
       <c r="H31" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S31" t="n">
-        <v>167.1934341018228</v>
+        <v>15.33220769232355</v>
       </c>
       <c r="T31" t="n">
         <v>232.9032904027983</v>
@@ -24922,19 +24922,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>257.9918706819881</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T32" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>233.7631646390769</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U33" t="n">
-        <v>81.63944942370524</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>157.525478464747</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.5706044367125</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25131,19 +25131,19 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9159111551209</v>
+        <v>20.49400896390756</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H35" t="n">
-        <v>29.90793336935085</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T35" t="n">
-        <v>210.2775313912475</v>
+        <v>3.389037398406856</v>
       </c>
       <c r="U35" t="n">
         <v>254.3124908149276</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25235,22 +25235,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>7.565553212940799</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
         <v>104.7337711575492</v>
       </c>
       <c r="H36" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>20.94840386854208</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>41.9926196316998</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25323,7 +25323,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>29.56967370978583</v>
       </c>
       <c r="G37" t="n">
         <v>164.5832153864156</v>
@@ -25365,7 +25365,7 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T37" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9159111551209</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>201.5250768999162</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H38" t="n">
         <v>285.0899515417858</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.2775313912475</v>
+        <v>75.67694582910394</v>
       </c>
       <c r="U38" t="n">
         <v>254.3124908149276</v>
@@ -25453,13 +25453,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25475,16 +25475,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>81.63944942370547</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>98.94425413696788</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H39" t="n">
         <v>58.58122432777904</v>
@@ -25526,7 +25526,7 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U39" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25599,7 +25599,7 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S40" t="n">
-        <v>167.1934341018228</v>
+        <v>65.67123014092849</v>
       </c>
       <c r="T40" t="n">
         <v>232.9032904027983</v>
@@ -25611,13 +25611,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>108.5706044367126</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>4.078538823786403</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>63.49145210864979</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T41" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.3124908149276</v>
@@ -25690,7 +25690,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7337711575492</v>
+        <v>4.412349524821593</v>
       </c>
       <c r="H42" t="n">
         <v>58.58122432777904</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>45.76804586203384</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -25791,13 +25791,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>111.6787839055925</v>
       </c>
       <c r="G43" t="n">
         <v>164.5832153864156</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>126.5801271381419</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U43" t="n">
         <v>279.9159111551209</v>
@@ -25854,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>58.91026139345308</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>285.0899515417858</v>
@@ -25921,16 +25921,16 @@
         <v>210.2775313912475</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>118.9540923723569</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H45" t="n">
         <v>58.58122432777904</v>
@@ -25994,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>83.14266501954049</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>64.85001838183118</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>118.9855532143879</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26076,7 +26076,7 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T46" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9159111551209</v>
@@ -26088,10 +26088,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>201.2943266120635</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>134534.2032726419</v>
+        <v>134534.2032726415</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>141317.8556267012</v>
+        <v>141317.8556267013</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>266711.0776143236</v>
+        <v>266711.0776143237</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>266711.0776143236</v>
+        <v>266711.0776143238</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>266711.0776143236</v>
+        <v>266711.0776143238</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>266711.0776143236</v>
+        <v>266711.0776143237</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>424077.7122991998</v>
+        <v>424077.7122991997</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>424077.7122991998</v>
+        <v>424077.7122991999</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>424077.7122991999</v>
+        <v>424077.7122991998</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>424077.7122991997</v>
+        <v>424077.7122991999</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50120.58553294506</v>
+        <v>50120.5855329449</v>
       </c>
       <c r="C2" t="n">
-        <v>52647.82856681023</v>
+        <v>52647.82856681025</v>
       </c>
       <c r="D2" t="n">
-        <v>55081.97647528962</v>
+        <v>55081.97647528964</v>
       </c>
       <c r="E2" t="n">
-        <v>99362.95048376764</v>
+        <v>99362.95048376766</v>
       </c>
       <c r="F2" t="n">
-        <v>99362.95048376766</v>
+        <v>99362.95048376768</v>
       </c>
       <c r="G2" t="n">
-        <v>99362.95048376765</v>
+        <v>99362.95048376771</v>
       </c>
       <c r="H2" t="n">
-        <v>99362.95048376766</v>
+        <v>99362.95048376768</v>
       </c>
       <c r="I2" t="n">
-        <v>157989.7359546039</v>
+        <v>157989.7359546038</v>
       </c>
       <c r="J2" t="n">
         <v>157989.7359546038</v>
       </c>
       <c r="K2" t="n">
-        <v>157989.7359546039</v>
+        <v>157989.7359546038</v>
       </c>
       <c r="L2" t="n">
-        <v>157989.7359546039</v>
+        <v>157989.7359546038</v>
       </c>
       <c r="M2" t="n">
-        <v>157989.7359546039</v>
+        <v>157989.7359546038</v>
       </c>
       <c r="N2" t="n">
-        <v>157989.7359546039</v>
+        <v>157989.7359546038</v>
       </c>
       <c r="O2" t="n">
-        <v>157989.7359546039</v>
+        <v>157989.7359546038</v>
       </c>
       <c r="P2" t="n">
         <v>157989.7359546039</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180510.4488779376</v>
+        <v>180510.4488779369</v>
       </c>
       <c r="C3" t="n">
-        <v>10101.79231064471</v>
+        <v>10101.79231064551</v>
       </c>
       <c r="D3" t="n">
-        <v>8871.778406779258</v>
+        <v>8871.778406779136</v>
       </c>
       <c r="E3" t="n">
-        <v>174858.7953097977</v>
+        <v>174858.7953097978</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>222021.1128848245</v>
+        <v>222021.1128848244</v>
       </c>
       <c r="J3" t="n">
-        <v>8180.779292787478</v>
+        <v>8180.779292787362</v>
       </c>
       <c r="K3" t="n">
-        <v>1611.759716561606</v>
+        <v>1611.759716561807</v>
       </c>
       <c r="L3" t="n">
-        <v>1993.42643617531</v>
+        <v>1993.426436175281</v>
       </c>
       <c r="M3" t="n">
         <v>43399.10839049721</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.57785121589313</v>
+        <v>21.57785121589276</v>
       </c>
       <c r="C4" t="n">
-        <v>27.19396146355786</v>
+        <v>27.19396146355793</v>
       </c>
       <c r="D4" t="n">
         <v>32.95512399923139</v>
       </c>
       <c r="E4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="F4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="G4" t="n">
         <v>155.6503797250001</v>
       </c>
       <c r="H4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="I4" t="n">
         <v>331.9759880256581</v>
@@ -26459,7 +26459,7 @@
         <v>331.9759880256581</v>
       </c>
       <c r="P4" t="n">
-        <v>331.9759880256581</v>
+        <v>331.9759880256582</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39375.29454046344</v>
+        <v>39375.2945404634</v>
       </c>
       <c r="C5" t="n">
         <v>39949.45546466367</v>
       </c>
       <c r="D5" t="n">
-        <v>40591.8881102477</v>
+        <v>40591.88811024769</v>
       </c>
       <c r="E5" t="n">
-        <v>20886.45015162825</v>
+        <v>20886.45015162826</v>
       </c>
       <c r="F5" t="n">
         <v>20886.45015162826</v>
       </c>
       <c r="G5" t="n">
-        <v>20886.45015162826</v>
+        <v>20886.45015162827</v>
       </c>
       <c r="H5" t="n">
-        <v>20886.45015162826</v>
+        <v>20886.45015162827</v>
       </c>
       <c r="I5" t="n">
         <v>40710.1211392429</v>
@@ -26496,10 +26496,10 @@
         <v>40710.1211392429</v>
       </c>
       <c r="K5" t="n">
-        <v>40710.1211392429</v>
+        <v>40710.12113924291</v>
       </c>
       <c r="L5" t="n">
-        <v>40710.1211392429</v>
+        <v>40710.12113924291</v>
       </c>
       <c r="M5" t="n">
         <v>40710.1211392429</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169786.7357366718</v>
+        <v>-171151.7671115593</v>
       </c>
       <c r="C6" t="n">
-        <v>2569.386830038296</v>
+        <v>1217.656734275108</v>
       </c>
       <c r="D6" t="n">
-        <v>5585.354834263439</v>
+        <v>4246.436043282652</v>
       </c>
       <c r="E6" t="n">
-        <v>-96537.94535738335</v>
+        <v>-97643.80639042496</v>
       </c>
       <c r="F6" t="n">
-        <v>78320.8499524144</v>
+        <v>77214.98891937283</v>
       </c>
       <c r="G6" t="n">
-        <v>78320.84995241438</v>
+        <v>77214.98891937284</v>
       </c>
       <c r="H6" t="n">
-        <v>78320.8499524144</v>
+        <v>77214.98891937282</v>
       </c>
       <c r="I6" t="n">
-        <v>-105073.4740574892</v>
+        <v>-105870.7730617369</v>
       </c>
       <c r="J6" t="n">
-        <v>108766.8595345478</v>
+        <v>107969.5605303002</v>
       </c>
       <c r="K6" t="n">
-        <v>115335.8791107737</v>
+        <v>114538.5801065257</v>
       </c>
       <c r="L6" t="n">
-        <v>114954.21239116</v>
+        <v>114156.9133869123</v>
       </c>
       <c r="M6" t="n">
-        <v>73548.53043683813</v>
+        <v>72751.23143259034</v>
       </c>
       <c r="N6" t="n">
-        <v>116947.6388273354</v>
+        <v>116150.3398230876</v>
       </c>
       <c r="O6" t="n">
-        <v>116947.6388273354</v>
+        <v>116150.3398230876</v>
       </c>
       <c r="P6" t="n">
-        <v>116947.6388273354</v>
+        <v>116150.3398230876</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.4528020606782</v>
+        <v>176.4528020606776</v>
       </c>
       <c r="C3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="D3" t="n">
         <v>192.8268792353934</v>
@@ -26749,13 +26749,13 @@
         <v>345.7528191377621</v>
       </c>
       <c r="F3" t="n">
-        <v>345.7528191377621</v>
+        <v>345.7528191377622</v>
       </c>
       <c r="G3" t="n">
         <v>345.7528191377622</v>
       </c>
       <c r="H3" t="n">
-        <v>345.7528191377621</v>
+        <v>345.7528191377622</v>
       </c>
       <c r="I3" t="n">
         <v>551.5907128643867</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.26683315033969</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="C4" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="D4" t="n">
         <v>45.40562735059407</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="F4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="G4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740963</v>
       </c>
       <c r="H4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740963</v>
       </c>
       <c r="I4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907774</v>
       </c>
       <c r="J4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907774</v>
       </c>
       <c r="K4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907776</v>
       </c>
       <c r="L4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907776</v>
       </c>
       <c r="M4" t="n">
         <v>471.8000591907775</v>
@@ -26831,7 +26831,7 @@
         <v>471.8000591907775</v>
       </c>
       <c r="P4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.4528020606782</v>
+        <v>176.4528020606776</v>
       </c>
       <c r="C3" t="n">
-        <v>8.871682038808814</v>
+        <v>8.871682038809524</v>
       </c>
       <c r="D3" t="n">
-        <v>7.502395135906369</v>
+        <v>7.502395135906255</v>
       </c>
       <c r="E3" t="n">
-        <v>152.9259399023687</v>
+        <v>152.9259399023688</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.26683315033969</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="C4" t="n">
-        <v>6.26247131174669</v>
+        <v>6.262471311747181</v>
       </c>
       <c r="D4" t="n">
-        <v>7.87632288850768</v>
+        <v>7.876322888507602</v>
       </c>
       <c r="E4" t="n">
-        <v>174.150930123502</v>
+        <v>174.1509301235021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,16 +27032,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>252.2435017166814</v>
+        <v>252.2435017166812</v>
       </c>
       <c r="J4" t="n">
-        <v>31.26683315033969</v>
+        <v>31.26683315033925</v>
       </c>
       <c r="K4" t="n">
-        <v>6.262471311746626</v>
+        <v>6.262471311747408</v>
       </c>
       <c r="L4" t="n">
-        <v>7.87632288850773</v>
+        <v>7.876322888507616</v>
       </c>
       <c r="M4" t="n">
         <v>174.1509301235021</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>31.26683315033969</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="K4" t="n">
-        <v>6.26247131174669</v>
+        <v>6.262471311747181</v>
       </c>
       <c r="L4" t="n">
-        <v>7.87632288850768</v>
+        <v>7.876322888507602</v>
       </c>
       <c r="M4" t="n">
-        <v>174.150930123502</v>
+        <v>174.1509301235021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7093579982338816</v>
+        <v>0.7093579982338792</v>
       </c>
       <c r="H2" t="n">
-        <v>7.264712599412742</v>
+        <v>7.264712599412717</v>
       </c>
       <c r="I2" t="n">
-        <v>27.34752422691175</v>
+        <v>27.34752422691166</v>
       </c>
       <c r="J2" t="n">
-        <v>60.20587340260296</v>
+        <v>60.20587340260276</v>
       </c>
       <c r="K2" t="n">
-        <v>90.23299746784319</v>
+        <v>90.23299746784288</v>
       </c>
       <c r="L2" t="n">
-        <v>111.9420123062934</v>
+        <v>111.942012306293</v>
       </c>
       <c r="M2" t="n">
-        <v>124.5570576073851</v>
+        <v>124.5570576073847</v>
       </c>
       <c r="N2" t="n">
-        <v>124.179123906959</v>
+        <v>124.1791239069586</v>
       </c>
       <c r="O2" t="n">
-        <v>119.518842424929</v>
+        <v>119.5188424249286</v>
       </c>
       <c r="P2" t="n">
-        <v>102.00656684353</v>
+        <v>102.0065668435297</v>
       </c>
       <c r="Q2" t="n">
-        <v>76.60268353177914</v>
+        <v>76.60268353177888</v>
       </c>
       <c r="R2" t="n">
-        <v>44.5592093565591</v>
+        <v>44.55920935655895</v>
       </c>
       <c r="S2" t="n">
-        <v>16.16449538475459</v>
+        <v>16.16449538475454</v>
       </c>
       <c r="T2" t="n">
-        <v>3.105214637268818</v>
+        <v>3.105214637268808</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05674863985871052</v>
+        <v>0.05674863985871032</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3795399893380625</v>
+        <v>0.3795399893380612</v>
       </c>
       <c r="H3" t="n">
-        <v>3.665557265449183</v>
+        <v>3.665557265449171</v>
       </c>
       <c r="I3" t="n">
-        <v>13.06749524694645</v>
+        <v>13.06749524694641</v>
       </c>
       <c r="J3" t="n">
-        <v>35.85820574706669</v>
+        <v>35.85820574706657</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>61.28738503271667</v>
       </c>
       <c r="L3" t="n">
-        <v>82.40845250956485</v>
+        <v>82.40845250956457</v>
       </c>
       <c r="M3" t="n">
-        <v>74.32485848046252</v>
+        <v>88.83111688875671</v>
       </c>
       <c r="N3" t="n">
-        <v>84.46022654408968</v>
+        <v>84.46022654408928</v>
       </c>
       <c r="O3" t="n">
-        <v>89.01831215033968</v>
+        <v>69.05045149394356</v>
       </c>
       <c r="P3" t="n">
-        <v>72.47549147280951</v>
+        <v>72.47549147280925</v>
       </c>
       <c r="Q3" t="n">
-        <v>48.44794670918848</v>
+        <v>48.44794670918831</v>
       </c>
       <c r="R3" t="n">
-        <v>23.56477232048077</v>
+        <v>23.56477232048069</v>
       </c>
       <c r="S3" t="n">
-        <v>7.049788837046902</v>
+        <v>7.049788837046878</v>
       </c>
       <c r="T3" t="n">
-        <v>1.529812500884558</v>
+        <v>1.529812500884553</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02496973614066202</v>
+        <v>0.02496973614066193</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3181935774864688</v>
+        <v>0.3181935774864678</v>
       </c>
       <c r="H4" t="n">
-        <v>2.829030170743334</v>
+        <v>2.829030170743324</v>
       </c>
       <c r="I4" t="n">
-        <v>9.568948675683993</v>
+        <v>9.568948675683959</v>
       </c>
       <c r="J4" t="n">
-        <v>22.49628592829334</v>
+        <v>22.49628592829327</v>
       </c>
       <c r="K4" t="n">
-        <v>36.96830836615518</v>
+        <v>36.96830836615506</v>
       </c>
       <c r="L4" t="n">
-        <v>47.3067069655792</v>
+        <v>47.30670696557904</v>
       </c>
       <c r="M4" t="n">
-        <v>49.8782896054471</v>
+        <v>49.87828960544693</v>
       </c>
       <c r="N4" t="n">
-        <v>48.69229536208849</v>
+        <v>48.69229536208832</v>
       </c>
       <c r="O4" t="n">
-        <v>44.97521584326926</v>
+        <v>44.97521584326911</v>
       </c>
       <c r="P4" t="n">
-        <v>38.48406686254527</v>
+        <v>38.48406686254513</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.64437311116241</v>
+        <v>26.64437311116231</v>
       </c>
       <c r="R4" t="n">
-        <v>14.30714031134613</v>
+        <v>14.30714031134608</v>
       </c>
       <c r="S4" t="n">
-        <v>5.545246254923278</v>
+        <v>5.545246254923258</v>
       </c>
       <c r="T4" t="n">
-        <v>1.359554376533094</v>
+        <v>1.359554376533089</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01735601331744377</v>
+        <v>0.01735601331744371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.7450230516562291</v>
       </c>
       <c r="H5" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774358</v>
       </c>
       <c r="I5" t="n">
-        <v>28.72250119897678</v>
+        <v>28.7225011989768</v>
       </c>
       <c r="J5" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K5" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711612</v>
       </c>
       <c r="L5" t="n">
-        <v>117.5702252242404</v>
+        <v>117.5702252242405</v>
       </c>
       <c r="M5" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N5" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O5" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P5" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954166</v>
       </c>
       <c r="R5" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860064</v>
       </c>
       <c r="S5" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T5" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.05960184413249831</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.3986224752328591</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538403</v>
       </c>
       <c r="I6" t="n">
-        <v>13.72450188849975</v>
+        <v>13.72450188849976</v>
       </c>
       <c r="J6" t="n">
-        <v>37.66108218855707</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K6" t="n">
-        <v>64.36878802915861</v>
+        <v>64.36878802915865</v>
       </c>
       <c r="L6" t="n">
-        <v>86.55177910702929</v>
+        <v>86.55177910702935</v>
       </c>
       <c r="M6" t="n">
-        <v>95.0935882005038</v>
+        <v>95.09358820050389</v>
       </c>
       <c r="N6" t="n">
-        <v>66.33398812649101</v>
+        <v>66.33398812649104</v>
       </c>
       <c r="O6" t="n">
-        <v>94.84242725419689</v>
+        <v>94.84242725419695</v>
       </c>
       <c r="P6" t="n">
-        <v>76.11940932757986</v>
+        <v>76.11940932757992</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R6" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S6" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031391</v>
       </c>
       <c r="T6" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426706</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384194</v>
       </c>
       <c r="H7" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I7" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J7" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953625</v>
       </c>
       <c r="K7" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L7" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644283</v>
       </c>
       <c r="M7" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422058</v>
       </c>
       <c r="N7" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256834</v>
       </c>
       <c r="O7" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P7" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146845</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R7" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S7" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T7" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.389961081960851</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H11" t="n">
-        <v>14.23493893063157</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I11" t="n">
-        <v>53.58647461229577</v>
+        <v>53.58647461229579</v>
       </c>
       <c r="J11" t="n">
         <v>117.9712093800749</v>
@@ -31770,28 +31770,28 @@
         <v>219.3462834415373</v>
       </c>
       <c r="M11" t="n">
-        <v>244.0650038328585</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N11" t="n">
-        <v>248.0142307569798</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O11" t="n">
         <v>234.1928052482316</v>
       </c>
       <c r="P11" t="n">
-        <v>199.878141037323</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q11" t="n">
         <v>150.1001597896</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472342</v>
+        <v>87.31214281472343</v>
       </c>
       <c r="S11" t="n">
         <v>31.67373815518294</v>
       </c>
       <c r="T11" t="n">
-        <v>6.08455463628363</v>
+        <v>6.084554636283631</v>
       </c>
       <c r="U11" t="n">
         <v>0.1111968865568681</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7436947430510354</v>
+        <v>0.7436947430510356</v>
       </c>
       <c r="H12" t="n">
-        <v>7.182525544729738</v>
+        <v>7.182525544729739</v>
       </c>
       <c r="I12" t="n">
-        <v>25.60527953048521</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J12" t="n">
-        <v>70.26284412308051</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K12" t="n">
         <v>120.0903919074999</v>
@@ -31852,19 +31852,19 @@
         <v>188.4352864300803</v>
       </c>
       <c r="N12" t="n">
-        <v>193.4226077551901</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O12" t="n">
-        <v>176.9438979223224</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P12" t="n">
         <v>142.0130777322631</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.93198158665498</v>
+        <v>94.931981586655</v>
       </c>
       <c r="R12" t="n">
-        <v>46.1743104501336</v>
+        <v>46.17431045013361</v>
       </c>
       <c r="S12" t="n">
         <v>13.81380367026813</v>
@@ -31873,7 +31873,7 @@
         <v>2.997611705543427</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04892728572704182</v>
+        <v>0.04892728572704183</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6234886902484233</v>
+        <v>0.6234886902484235</v>
       </c>
       <c r="H13" t="n">
-        <v>5.543381264208713</v>
+        <v>5.543381264208714</v>
       </c>
       <c r="I13" t="n">
         <v>18.75000533947077</v>
@@ -31922,25 +31922,25 @@
         <v>44.08065040056353</v>
       </c>
       <c r="K13" t="n">
-        <v>72.43804964886226</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L13" t="n">
-        <v>92.69576400293379</v>
+        <v>92.6957640029338</v>
       </c>
       <c r="M13" t="n">
-        <v>97.73468623594147</v>
+        <v>97.73468623594148</v>
       </c>
       <c r="N13" t="n">
-        <v>95.41077384501561</v>
+        <v>95.41077384501563</v>
       </c>
       <c r="O13" t="n">
-        <v>88.12729232711354</v>
+        <v>88.12729232711355</v>
       </c>
       <c r="P13" t="n">
-        <v>75.40812304604565</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.20867568980207</v>
+        <v>52.20867568980208</v>
       </c>
       <c r="R13" t="n">
         <v>28.03431874517001</v>
@@ -31952,7 +31952,7 @@
         <v>2.663997131061445</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0340084740135504</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.389961081960851</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H14" t="n">
-        <v>14.23493893063157</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I14" t="n">
-        <v>53.58647461229577</v>
+        <v>53.5864746122958</v>
       </c>
       <c r="J14" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K14" t="n">
-        <v>176.8082619794778</v>
+        <v>176.8082619794779</v>
       </c>
       <c r="L14" t="n">
         <v>219.3462834415373</v>
       </c>
       <c r="M14" t="n">
-        <v>244.0650038328585</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N14" t="n">
-        <v>248.0142307569798</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O14" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482317</v>
       </c>
       <c r="P14" t="n">
-        <v>199.878141037323</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q14" t="n">
         <v>150.1001597896</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472342</v>
+        <v>87.31214281472344</v>
       </c>
       <c r="S14" t="n">
-        <v>31.67373815518294</v>
+        <v>31.67373815518295</v>
       </c>
       <c r="T14" t="n">
-        <v>6.08455463628363</v>
+        <v>6.084554636283633</v>
       </c>
       <c r="U14" t="n">
         <v>0.1111968865568681</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7436947430510354</v>
+        <v>0.7436947430510357</v>
       </c>
       <c r="H15" t="n">
-        <v>7.182525544729738</v>
+        <v>7.18252554472974</v>
       </c>
       <c r="I15" t="n">
-        <v>25.60527953048521</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J15" t="n">
-        <v>70.26284412308051</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K15" t="n">
         <v>120.0903919074999</v>
       </c>
       <c r="L15" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944804</v>
       </c>
       <c r="M15" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300804</v>
       </c>
       <c r="N15" t="n">
-        <v>193.4226077551901</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O15" t="n">
-        <v>176.9438979223224</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P15" t="n">
         <v>142.0130777322631</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.93198158665498</v>
+        <v>94.93198158665501</v>
       </c>
       <c r="R15" t="n">
-        <v>46.1743104501336</v>
+        <v>46.17431045013362</v>
       </c>
       <c r="S15" t="n">
         <v>13.81380367026813</v>
       </c>
       <c r="T15" t="n">
-        <v>2.997611705543427</v>
+        <v>2.997611705543428</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04892728572704182</v>
+        <v>0.04892728572704184</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6234886902484233</v>
+        <v>0.6234886902484236</v>
       </c>
       <c r="H16" t="n">
-        <v>5.543381264208713</v>
+        <v>5.543381264208715</v>
       </c>
       <c r="I16" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947078</v>
       </c>
       <c r="J16" t="n">
-        <v>44.08065040056353</v>
+        <v>44.08065040056354</v>
       </c>
       <c r="K16" t="n">
-        <v>72.43804964886226</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L16" t="n">
-        <v>92.69576400293379</v>
+        <v>92.69576400293381</v>
       </c>
       <c r="M16" t="n">
-        <v>97.73468623594147</v>
+        <v>97.73468623594151</v>
       </c>
       <c r="N16" t="n">
-        <v>95.41077384501561</v>
+        <v>95.41077384501564</v>
       </c>
       <c r="O16" t="n">
-        <v>88.12729232711354</v>
+        <v>88.12729232711357</v>
       </c>
       <c r="P16" t="n">
-        <v>75.40812304604565</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.20867568980207</v>
+        <v>52.20867568980209</v>
       </c>
       <c r="R16" t="n">
-        <v>28.03431874517001</v>
+        <v>28.03431874517002</v>
       </c>
       <c r="S16" t="n">
         <v>10.86570744732934</v>
@@ -32189,7 +32189,7 @@
         <v>2.663997131061445</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0340084740135504</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,13 +32469,13 @@
         <v>14.23493893063158</v>
       </c>
       <c r="I20" t="n">
-        <v>53.58647461229579</v>
+        <v>53.5864746122958</v>
       </c>
       <c r="J20" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K20" t="n">
-        <v>176.8082619794778</v>
+        <v>176.8082619794779</v>
       </c>
       <c r="L20" t="n">
         <v>219.3462834415373</v>
@@ -32487,7 +32487,7 @@
         <v>248.0142307569799</v>
       </c>
       <c r="O20" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482317</v>
       </c>
       <c r="P20" t="n">
         <v>199.8781410373231</v>
@@ -32496,13 +32496,13 @@
         <v>150.1001597896</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472343</v>
+        <v>87.31214281472344</v>
       </c>
       <c r="S20" t="n">
-        <v>31.67373815518294</v>
+        <v>31.67373815518295</v>
       </c>
       <c r="T20" t="n">
-        <v>6.084554636283631</v>
+        <v>6.084554636283633</v>
       </c>
       <c r="U20" t="n">
         <v>0.1111968865568681</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7436947430510356</v>
+        <v>0.7436947430510357</v>
       </c>
       <c r="H21" t="n">
-        <v>7.182525544729739</v>
+        <v>7.18252554472974</v>
       </c>
       <c r="I21" t="n">
         <v>25.60527953048522</v>
@@ -32557,10 +32557,10 @@
         <v>120.0903919074999</v>
       </c>
       <c r="L21" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944804</v>
       </c>
       <c r="M21" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300804</v>
       </c>
       <c r="N21" t="n">
         <v>193.4226077551902</v>
@@ -32572,19 +32572,19 @@
         <v>142.0130777322631</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.931981586655</v>
+        <v>94.93198158665501</v>
       </c>
       <c r="R21" t="n">
-        <v>46.17431045013361</v>
+        <v>46.17431045013362</v>
       </c>
       <c r="S21" t="n">
         <v>13.81380367026813</v>
       </c>
       <c r="T21" t="n">
-        <v>2.997611705543427</v>
+        <v>2.997611705543428</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04892728572704183</v>
+        <v>0.04892728572704184</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6234886902484235</v>
+        <v>0.6234886902484236</v>
       </c>
       <c r="H22" t="n">
-        <v>5.543381264208714</v>
+        <v>5.543381264208715</v>
       </c>
       <c r="I22" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947078</v>
       </c>
       <c r="J22" t="n">
-        <v>44.08065040056353</v>
+        <v>44.08065040056354</v>
       </c>
       <c r="K22" t="n">
         <v>72.43804964886228</v>
       </c>
       <c r="L22" t="n">
-        <v>92.6957640029338</v>
+        <v>92.69576400293381</v>
       </c>
       <c r="M22" t="n">
-        <v>97.73468623594148</v>
+        <v>97.73468623594151</v>
       </c>
       <c r="N22" t="n">
-        <v>95.41077384501563</v>
+        <v>95.41077384501564</v>
       </c>
       <c r="O22" t="n">
-        <v>88.12729232711355</v>
+        <v>88.12729232711357</v>
       </c>
       <c r="P22" t="n">
         <v>75.40812304604566</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.20867568980208</v>
+        <v>52.20867568980209</v>
       </c>
       <c r="R22" t="n">
-        <v>28.03431874517001</v>
+        <v>28.03431874517002</v>
       </c>
       <c r="S22" t="n">
         <v>10.86570744732934</v>
@@ -34383,7 +34383,7 @@
         <v>395.6651653192952</v>
       </c>
       <c r="O44" t="n">
-        <v>373.615395867857</v>
+        <v>373.6153958678574</v>
       </c>
       <c r="P44" t="n">
         <v>318.8720964755372</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.096607794626067</v>
+        <v>1.096607794625754</v>
       </c>
       <c r="L2" t="n">
-        <v>16.45661424344854</v>
+        <v>16.45661424344816</v>
       </c>
       <c r="M2" t="n">
-        <v>31.26683315033969</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="N2" t="n">
-        <v>31.26683315033969</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="O2" t="n">
-        <v>26.32906679914588</v>
+        <v>26.32906679914548</v>
       </c>
       <c r="P2" t="n">
-        <v>8.357203562645878</v>
+        <v>8.357203562645537</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.461602248101279</v>
       </c>
       <c r="L3" t="n">
-        <v>26.2939286987158</v>
+        <v>26.29392869871552</v>
       </c>
       <c r="M3" t="n">
-        <v>16.76057474204511</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="N3" t="n">
-        <v>31.26683315033969</v>
+        <v>31.26683315033928</v>
       </c>
       <c r="O3" t="n">
-        <v>31.26683315033969</v>
+        <v>11.29897249394356</v>
       </c>
       <c r="P3" t="n">
-        <v>18.21585647000576</v>
+        <v>18.21585647000551</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898995</v>
       </c>
       <c r="L5" t="n">
-        <v>22.08482716139557</v>
+        <v>22.08482716139564</v>
       </c>
       <c r="M5" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208647</v>
       </c>
       <c r="N5" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="O5" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896042</v>
       </c>
       <c r="P5" t="n">
-        <v>13.48588282609616</v>
+        <v>13.48588282609623</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>8.543005244543217</v>
+        <v>8.543005244543259</v>
       </c>
       <c r="L6" t="n">
-        <v>30.43725529618024</v>
+        <v>30.4372552961803</v>
       </c>
       <c r="M6" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="N6" t="n">
-        <v>13.14059473274101</v>
+        <v>13.14059473274104</v>
       </c>
       <c r="O6" t="n">
-        <v>37.0909482541969</v>
+        <v>37.09094825419695</v>
       </c>
       <c r="P6" t="n">
-        <v>21.85977432477611</v>
+        <v>21.85977432477617</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.64761804676698</v>
+        <v>44.64761804676699</v>
       </c>
       <c r="K11" t="n">
-        <v>87.67187230626068</v>
+        <v>87.67187230626071</v>
       </c>
       <c r="L11" t="n">
-        <v>123.8608853786924</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M11" t="n">
         <v>150.7747793758131</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.8936053230805</v>
+        <v>18.89360532308051</v>
       </c>
       <c r="K12" t="n">
-        <v>64.26460912288448</v>
+        <v>64.26460912288451</v>
       </c>
       <c r="L12" t="n">
-        <v>105.3618281836312</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M12" t="n">
         <v>130.8710026916629</v>
       </c>
       <c r="N12" t="n">
-        <v>140.2292143614401</v>
+        <v>140.2292143614402</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1924189223224</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P12" t="n">
-        <v>87.75344272945932</v>
+        <v>87.75344272945935</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.23936308181626</v>
+        <v>38.23936308181628</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.18768008979544</v>
+        <v>20.18768008979545</v>
       </c>
       <c r="L13" t="n">
-        <v>38.06747010903228</v>
+        <v>38.06747010903229</v>
       </c>
       <c r="M13" t="n">
-        <v>41.46974373716142</v>
+        <v>41.46974373716144</v>
       </c>
       <c r="N13" t="n">
-        <v>43.69812833659617</v>
+        <v>43.69812833659618</v>
       </c>
       <c r="O13" t="n">
-        <v>32.05239425411721</v>
+        <v>32.05239425411722</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62828140614086</v>
+        <v>19.62828140614088</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.64761804676698</v>
+        <v>44.64761804676702</v>
       </c>
       <c r="K14" t="n">
-        <v>87.67187230626068</v>
+        <v>87.67187230626074</v>
       </c>
       <c r="L14" t="n">
-        <v>123.8608853786924</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M14" t="n">
-        <v>150.7747793758131</v>
+        <v>150.7747793758132</v>
       </c>
       <c r="N14" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003606</v>
       </c>
       <c r="O14" t="n">
         <v>141.0030296224485</v>
@@ -35667,7 +35667,7 @@
         <v>106.2287777564389</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.06635539044797</v>
+        <v>60.066355390448</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.8936053230805</v>
+        <v>18.89360532308051</v>
       </c>
       <c r="K15" t="n">
-        <v>64.26460912288448</v>
+        <v>64.26460912288454</v>
       </c>
       <c r="L15" t="n">
-        <v>105.3618281836312</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M15" t="n">
         <v>130.8710026916629</v>
       </c>
       <c r="N15" t="n">
-        <v>140.2292143614401</v>
+        <v>140.2292143614402</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1924189223224</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P15" t="n">
-        <v>87.75344272945932</v>
+        <v>87.75344272945938</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.23936308181626</v>
+        <v>38.23936308181629</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.18768008979544</v>
+        <v>20.18768008979545</v>
       </c>
       <c r="L16" t="n">
-        <v>38.06747010903228</v>
+        <v>38.06747010903231</v>
       </c>
       <c r="M16" t="n">
-        <v>41.46974373716142</v>
+        <v>41.46974373716147</v>
       </c>
       <c r="N16" t="n">
-        <v>43.69812833659617</v>
+        <v>43.6981283365962</v>
       </c>
       <c r="O16" t="n">
-        <v>32.05239425411721</v>
+        <v>32.05239425411724</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62828140614086</v>
+        <v>19.62828140614088</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.64761804676699</v>
+        <v>44.64761804676702</v>
       </c>
       <c r="K20" t="n">
-        <v>87.67187230626071</v>
+        <v>87.67187230626074</v>
       </c>
       <c r="L20" t="n">
         <v>123.8608853786925</v>
       </c>
       <c r="M20" t="n">
-        <v>150.7747793758131</v>
+        <v>150.7747793758132</v>
       </c>
       <c r="N20" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003606</v>
       </c>
       <c r="O20" t="n">
         <v>141.0030296224485</v>
@@ -36141,7 +36141,7 @@
         <v>106.2287777564389</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.06635539044797</v>
+        <v>60.066355390448</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>18.89360532308051</v>
       </c>
       <c r="K21" t="n">
-        <v>64.26460912288451</v>
+        <v>64.26460912288454</v>
       </c>
       <c r="L21" t="n">
         <v>105.3618281836313</v>
@@ -36217,10 +36217,10 @@
         <v>119.1924189223225</v>
       </c>
       <c r="P21" t="n">
-        <v>87.75344272945935</v>
+        <v>87.75344272945938</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.23936308181628</v>
+        <v>38.23936308181629</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>20.18768008979545</v>
       </c>
       <c r="L22" t="n">
-        <v>38.06747010903229</v>
+        <v>38.06747010903231</v>
       </c>
       <c r="M22" t="n">
-        <v>41.46974373716144</v>
+        <v>41.46974373716147</v>
       </c>
       <c r="N22" t="n">
-        <v>43.69812833659618</v>
+        <v>43.6981283365962</v>
       </c>
       <c r="O22" t="n">
-        <v>32.05239425411722</v>
+        <v>32.05239425411724</v>
       </c>
       <c r="P22" t="n">
         <v>19.62828140614088</v>
@@ -38031,7 +38031,7 @@
         <v>302.7528745626759</v>
       </c>
       <c r="O44" t="n">
-        <v>280.4256202420739</v>
+        <v>280.4256202420743</v>
       </c>
       <c r="P44" t="n">
         <v>225.222733194653</v>
